--- a/concorrente/producerconsumer/main/data.xlsx
+++ b/concorrente/producerconsumer/main/data.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Parametros" sheetId="1" r:id="rId1"/>
     <sheet name="Dados" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Parâmetro do Sistema</t>
   </si>
@@ -90,9 +89,6 @@
     <t>Capacidade do Buffer = 1</t>
   </si>
   <si>
-    <t>1,100,1000</t>
-  </si>
-  <si>
     <t>Capacidade do Buffer = 100</t>
   </si>
   <si>
@@ -112,6 +108,12 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>1,10,100,1000</t>
+  </si>
+  <si>
+    <t>Capacidade do Buffer = 10</t>
   </si>
 </sst>
 </file>
@@ -234,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -293,6 +295,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,7 +342,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Dados!$U$2:$Y$2</c:f>
+              <c:f>Dados!$AA$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -357,7 +365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dados!$U$5:$Y$5</c:f>
+              <c:f>Dados!$AA$5:$AE$5</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -374,7 +382,7 @@
                   <c:v>47.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.707070707070713</c:v>
+                  <c:v>1047.6060606060605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -383,11 +391,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="130810624"/>
-        <c:axId val="130812544"/>
+        <c:axId val="74185344"/>
+        <c:axId val="74566272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130810624"/>
+        <c:axId val="74185344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,14 +404,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130812544"/>
+        <c:crossAx val="74566272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130812544"/>
+        <c:axId val="74566272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -429,7 +437,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130810624"/>
+        <c:crossAx val="74185344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -442,7 +450,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -480,7 +488,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Dados!$U$2:$Y$2</c:f>
+              <c:f>Dados!$AA$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -503,7 +511,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dados!$U$4:$Y$4</c:f>
+              <c:f>Dados!$AA$4:$AE$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -520,7 +528,7 @@
                   <c:v>136.94949494949495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>405.72727272727275</c:v>
+                  <c:v>1007.3131313131313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,11 +537,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="130857984"/>
-        <c:axId val="130487424"/>
+        <c:axId val="29284608"/>
+        <c:axId val="29286784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130857984"/>
+        <c:axId val="29284608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,14 +550,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130487424"/>
+        <c:crossAx val="29286784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130487424"/>
+        <c:axId val="29286784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +583,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130857984"/>
+        <c:crossAx val="29284608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -588,7 +596,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -598,13 +606,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
@@ -628,13 +636,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
@@ -947,7 +955,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1029,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="12">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1037,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="13">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1045,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1056,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:AE102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E102"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1071,15 +1079,19 @@
     <col min="5" max="5" width="8.7265625" style="10" customWidth="1"/>
     <col min="6" max="6" width="0.7265625" customWidth="1"/>
     <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6328125" customWidth="1"/>
-    <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="10"/>
+    <col min="14" max="18" width="8.7265625" style="10"/>
+    <col min="20" max="24" width="8.7265625" style="10"/>
+    <col min="25" max="25" width="8.7265625" style="17"/>
+    <col min="26" max="26" width="15.6328125" customWidth="1"/>
+    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:31">
       <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
@@ -1088,31 +1100,39 @@
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="H1" s="25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
       <c r="N1" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O1" s="25"/>
       <c r="P1" s="25"/>
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
-      <c r="T1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-    </row>
-    <row r="2" spans="1:25" ht="43.5">
+      <c r="T1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+    </row>
+    <row r="2" spans="1:31" ht="43.5">
       <c r="A2" s="19" t="s">
         <v>17</v>
       </c>
@@ -1158,98 +1178,135 @@
       <c r="R2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19" t="s">
+      <c r="T2" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="U2" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="V2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="AD2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="AE2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="29">
+    <row r="3" spans="1:31" ht="29">
       <c r="A3" s="10">
         <v>89</v>
       </c>
       <c r="B3" s="10">
         <v>81</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="18">
+        <v>1569</v>
+      </c>
       <c r="D3" s="10">
         <v>122</v>
       </c>
       <c r="E3" s="10">
         <v>97</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>86</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="10">
         <v>82</v>
       </c>
-      <c r="J3" s="17">
-        <v>235</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="14">
+        <v>2069</v>
+      </c>
+      <c r="K3" s="10">
         <v>152</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="10">
         <v>84</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="10">
         <v>79</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="10">
         <v>72</v>
       </c>
-      <c r="P3">
-        <v>138</v>
-      </c>
-      <c r="Q3">
+      <c r="P3" s="10">
+        <v>2013</v>
+      </c>
+      <c r="Q3" s="10">
         <v>93</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="10">
         <v>81</v>
       </c>
-      <c r="T3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="23">
+      <c r="T3" s="10">
+        <v>79</v>
+      </c>
+      <c r="U3" s="10">
+        <v>72</v>
+      </c>
+      <c r="V3" s="14">
+        <v>2082</v>
+      </c>
+      <c r="W3" s="10">
+        <v>93</v>
+      </c>
+      <c r="X3" s="10">
+        <v>81</v>
+      </c>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="23">
         <f>AVERAGE($A$4:$A$102)</f>
         <v>28.444444444444443</v>
       </c>
-      <c r="V3" s="23">
+      <c r="AB3" s="23">
         <f>AVERAGE($E$4:$E$102)</f>
         <v>29.323232323232322</v>
       </c>
-      <c r="W3" s="23">
+      <c r="AC3" s="23">
         <f>AVERAGE($B$4:$B$102)</f>
         <v>60.939393939393938</v>
       </c>
-      <c r="X3" s="23">
+      <c r="AD3" s="23">
         <f>AVERAGE($D$4:$D$102)</f>
         <v>615.66666666666663</v>
       </c>
-      <c r="Y3" s="23" t="e">
+      <c r="AE3" s="23">
         <f>AVERAGE($C$4:$C$102)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="29">
+        <v>998.030303030303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="29">
       <c r="A4" s="10">
         <v>50</v>
       </c>
       <c r="B4" s="10">
         <v>56</v>
       </c>
+      <c r="C4" s="10">
+        <v>1409</v>
+      </c>
       <c r="D4" s="10">
         <v>244</v>
       </c>
@@ -1257,661 +1314,915 @@
         <v>40</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="17">
+      <c r="H4" s="10">
         <v>32</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="10">
         <v>41</v>
       </c>
-      <c r="J4">
-        <v>507</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="J4" s="14">
+        <v>1609</v>
+      </c>
+      <c r="K4" s="10">
         <v>60</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="10">
         <v>31</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="10">
         <v>21</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="10">
         <v>31</v>
       </c>
-      <c r="P4">
-        <v>102</v>
-      </c>
-      <c r="Q4">
-        <v>40</v>
-      </c>
-      <c r="R4">
-        <v>20</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="24">
+      <c r="P4" s="10">
+        <v>1552</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>40</v>
+      </c>
+      <c r="R4" s="10">
+        <v>20</v>
+      </c>
+      <c r="T4" s="10">
+        <v>21</v>
+      </c>
+      <c r="U4" s="10">
+        <v>31</v>
+      </c>
+      <c r="V4" s="14">
+        <v>1600</v>
+      </c>
+      <c r="W4" s="10">
+        <v>40</v>
+      </c>
+      <c r="X4" s="10">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="24">
         <f>AVERAGE($H$4:$H$102)</f>
         <v>18.171717171717173</v>
       </c>
-      <c r="V4" s="24">
+      <c r="AB4" s="24">
         <f>AVERAGE($L$4:$L$102)</f>
         <v>19.131313131313131</v>
       </c>
-      <c r="W4" s="24">
+      <c r="AC4" s="24">
         <f>AVERAGE($I$4:I102)</f>
         <v>50.393939393939391</v>
       </c>
-      <c r="X4" s="24">
+      <c r="AD4" s="24">
         <f>AVERAGE($K$4:$K$102)</f>
         <v>136.94949494949495</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="AE4" s="24">
         <f>AVERAGE($J$4:J102)</f>
-        <v>405.72727272727275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="29">
+        <v>1007.3131313131313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="29">
       <c r="A5" s="10">
         <v>53</v>
       </c>
       <c r="B5" s="10">
         <v>55</v>
       </c>
+      <c r="C5" s="10">
+        <v>1460</v>
+      </c>
       <c r="D5" s="10">
         <v>261</v>
       </c>
       <c r="E5" s="10">
         <v>50</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="10">
         <v>35</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="10">
         <v>48</v>
       </c>
-      <c r="J5">
-        <v>543</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="14">
+        <v>1623</v>
+      </c>
+      <c r="K5" s="10">
         <v>143</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="10">
         <v>34</v>
       </c>
-      <c r="N5">
-        <v>30</v>
-      </c>
-      <c r="O5">
+      <c r="N5" s="10">
+        <v>30</v>
+      </c>
+      <c r="O5" s="10">
         <v>39</v>
       </c>
-      <c r="P5">
-        <v>145</v>
-      </c>
-      <c r="Q5">
+      <c r="P5" s="10">
+        <v>1563</v>
+      </c>
+      <c r="Q5" s="10">
         <v>45</v>
       </c>
-      <c r="R5">
-        <v>20</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="24">
+      <c r="R5" s="10">
+        <v>20</v>
+      </c>
+      <c r="T5" s="10">
+        <v>30</v>
+      </c>
+      <c r="U5" s="10">
+        <v>39</v>
+      </c>
+      <c r="V5" s="14">
+        <v>1587</v>
+      </c>
+      <c r="W5" s="10">
+        <v>45</v>
+      </c>
+      <c r="X5" s="10">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="24">
         <f>AVERAGE($N$4:$N$102)</f>
         <v>16.646464646464647</v>
       </c>
-      <c r="V5" s="24">
+      <c r="AB5" s="24">
         <f>AVERAGE($R$4:$R$102)</f>
         <v>16.929292929292931</v>
       </c>
-      <c r="W5" s="24">
+      <c r="AC5" s="24">
         <f>AVERAGE($O$4:O102)</f>
         <v>38.888888888888886</v>
       </c>
-      <c r="X5" s="24">
+      <c r="AD5" s="24">
         <f>AVERAGE($Q$4:$Q$102)</f>
         <v>47.666666666666664</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="AE5" s="24">
         <f>AVERAGE($P$4:P102)</f>
-        <v>97.707070707070713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>1047.6060606060605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="10">
         <v>47</v>
       </c>
       <c r="B6" s="10">
         <v>72</v>
       </c>
+      <c r="C6" s="10">
+        <v>1576</v>
+      </c>
       <c r="D6" s="10">
         <v>575</v>
       </c>
       <c r="E6" s="10">
         <v>40</v>
       </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="10">
+        <v>30</v>
+      </c>
+      <c r="I6" s="10">
         <v>47</v>
       </c>
-      <c r="J6">
-        <v>537</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="14">
+        <v>1625</v>
+      </c>
+      <c r="K6" s="10">
         <v>99</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="10">
         <v>31</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="10">
         <v>22</v>
       </c>
-      <c r="O6">
-        <v>40</v>
-      </c>
-      <c r="P6">
-        <v>161</v>
-      </c>
-      <c r="Q6">
+      <c r="O6" s="10">
+        <v>40</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1529</v>
+      </c>
+      <c r="Q6" s="10">
         <v>36</v>
       </c>
-      <c r="R6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="R6" s="10">
+        <v>20</v>
+      </c>
+      <c r="T6" s="10">
+        <v>22</v>
+      </c>
+      <c r="U6" s="10">
+        <v>40</v>
+      </c>
+      <c r="V6" s="14">
+        <v>1620</v>
+      </c>
+      <c r="W6" s="10">
+        <v>36</v>
+      </c>
+      <c r="X6" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="10">
         <v>32</v>
       </c>
       <c r="B7" s="10">
         <v>49</v>
       </c>
+      <c r="C7" s="10">
+        <v>1532</v>
+      </c>
       <c r="D7" s="10">
         <v>353</v>
       </c>
       <c r="E7" s="10">
         <v>30</v>
       </c>
-      <c r="H7" s="17">
-        <v>20</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="10">
+        <v>20</v>
+      </c>
+      <c r="I7" s="10">
         <v>34</v>
       </c>
-      <c r="J7">
-        <v>537</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="14">
+        <v>1613</v>
+      </c>
+      <c r="K7" s="10">
         <v>130</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="10">
         <v>29</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="10">
         <v>21</v>
       </c>
-      <c r="O7">
-        <v>40</v>
-      </c>
-      <c r="P7">
-        <v>169</v>
-      </c>
-      <c r="Q7">
+      <c r="O7" s="10">
+        <v>40</v>
+      </c>
+      <c r="P7" s="10">
+        <v>1513</v>
+      </c>
+      <c r="Q7" s="10">
         <v>45</v>
       </c>
-      <c r="R7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="R7" s="10">
+        <v>20</v>
+      </c>
+      <c r="T7" s="10">
+        <v>21</v>
+      </c>
+      <c r="U7" s="10">
+        <v>40</v>
+      </c>
+      <c r="V7" s="14">
+        <v>1589</v>
+      </c>
+      <c r="W7" s="10">
+        <v>45</v>
+      </c>
+      <c r="X7" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="10">
         <v>36</v>
       </c>
       <c r="B8" s="10">
         <v>77</v>
       </c>
+      <c r="C8" s="10">
+        <v>1456</v>
+      </c>
       <c r="D8" s="10">
         <v>1032</v>
       </c>
       <c r="E8" s="10">
         <v>30</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="10">
         <v>26</v>
       </c>
-      <c r="I8">
-        <v>50</v>
-      </c>
-      <c r="J8">
-        <v>566</v>
-      </c>
-      <c r="K8">
+      <c r="I8" s="10">
+        <v>50</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1145</v>
+      </c>
+      <c r="K8" s="10">
         <v>112</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="10">
         <v>29</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="10">
         <v>15</v>
       </c>
-      <c r="O8">
-        <v>30</v>
-      </c>
-      <c r="P8">
-        <v>138</v>
-      </c>
-      <c r="Q8">
+      <c r="O8" s="10">
+        <v>30</v>
+      </c>
+      <c r="P8" s="10">
+        <v>1403</v>
+      </c>
+      <c r="Q8" s="10">
         <v>47</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="10">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="T8" s="10">
+        <v>15</v>
+      </c>
+      <c r="U8" s="10">
+        <v>30</v>
+      </c>
+      <c r="V8" s="14">
+        <v>1398</v>
+      </c>
+      <c r="W8" s="10">
+        <v>47</v>
+      </c>
+      <c r="X8" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="10">
         <v>21</v>
       </c>
       <c r="B9" s="10">
         <v>47</v>
       </c>
+      <c r="C9" s="10">
+        <v>1031</v>
+      </c>
       <c r="D9" s="10">
         <v>739</v>
       </c>
       <c r="E9" s="10">
         <v>31</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="10">
         <v>24</v>
       </c>
-      <c r="I9">
-        <v>50</v>
-      </c>
-      <c r="J9">
-        <v>531</v>
-      </c>
-      <c r="K9">
+      <c r="I9" s="10">
+        <v>50</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1100</v>
+      </c>
+      <c r="K9" s="10">
         <v>79</v>
       </c>
-      <c r="L9">
-        <v>20</v>
-      </c>
-      <c r="N9">
-        <v>20</v>
-      </c>
-      <c r="O9">
+      <c r="L9" s="10">
+        <v>20</v>
+      </c>
+      <c r="N9" s="10">
+        <v>20</v>
+      </c>
+      <c r="O9" s="10">
         <v>41</v>
       </c>
-      <c r="P9">
-        <v>100</v>
-      </c>
-      <c r="Q9">
+      <c r="P9" s="10">
+        <v>1103</v>
+      </c>
+      <c r="Q9" s="10">
         <v>48</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="10">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="T9" s="10">
+        <v>20</v>
+      </c>
+      <c r="U9" s="10">
+        <v>41</v>
+      </c>
+      <c r="V9" s="14">
+        <v>987</v>
+      </c>
+      <c r="W9" s="10">
+        <v>48</v>
+      </c>
+      <c r="X9" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="10">
         <v>30</v>
       </c>
       <c r="B10" s="10">
         <v>62</v>
       </c>
+      <c r="C10" s="10">
+        <v>1025</v>
+      </c>
       <c r="D10" s="10">
         <v>1179</v>
       </c>
       <c r="E10" s="10">
         <v>31</v>
       </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="10">
+        <v>20</v>
+      </c>
+      <c r="I10" s="10">
         <v>51</v>
       </c>
-      <c r="J10">
-        <v>587</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="14">
+        <v>1079</v>
+      </c>
+      <c r="K10" s="10">
         <v>144</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="10">
         <v>21</v>
       </c>
-      <c r="N10">
-        <v>20</v>
-      </c>
-      <c r="O10">
-        <v>40</v>
-      </c>
-      <c r="P10">
-        <v>101</v>
-      </c>
-      <c r="Q10">
-        <v>50</v>
-      </c>
-      <c r="R10">
+      <c r="N10" s="10">
+        <v>20</v>
+      </c>
+      <c r="O10" s="10">
+        <v>40</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1036</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>50</v>
+      </c>
+      <c r="R10" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="T10" s="10">
+        <v>20</v>
+      </c>
+      <c r="U10" s="10">
+        <v>40</v>
+      </c>
+      <c r="V10" s="14">
+        <v>1100</v>
+      </c>
+      <c r="W10" s="10">
+        <v>50</v>
+      </c>
+      <c r="X10" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="10">
         <v>31</v>
       </c>
       <c r="B11" s="10">
         <v>63</v>
       </c>
+      <c r="C11" s="10">
+        <v>1035</v>
+      </c>
       <c r="D11" s="10">
         <v>687</v>
       </c>
       <c r="E11" s="10">
         <v>28</v>
       </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>50</v>
-      </c>
-      <c r="J11">
-        <v>566</v>
-      </c>
-      <c r="K11">
+      <c r="H11" s="10">
+        <v>20</v>
+      </c>
+      <c r="I11" s="10">
+        <v>50</v>
+      </c>
+      <c r="J11" s="14">
+        <v>953</v>
+      </c>
+      <c r="K11" s="10">
         <v>158</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="10">
         <v>24</v>
       </c>
-      <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <v>40</v>
-      </c>
-      <c r="P11">
-        <v>86</v>
-      </c>
-      <c r="Q11">
-        <v>50</v>
-      </c>
-      <c r="R11">
+      <c r="N11" s="10">
+        <v>10</v>
+      </c>
+      <c r="O11" s="10">
+        <v>40</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1025</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>50</v>
+      </c>
+      <c r="R11" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="T11" s="10">
+        <v>10</v>
+      </c>
+      <c r="U11" s="10">
+        <v>40</v>
+      </c>
+      <c r="V11" s="14">
+        <v>1025</v>
+      </c>
+      <c r="W11" s="10">
+        <v>50</v>
+      </c>
+      <c r="X11" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="10">
         <v>32</v>
       </c>
       <c r="B12" s="10">
         <v>66</v>
       </c>
+      <c r="C12" s="10">
+        <v>923</v>
+      </c>
       <c r="D12" s="10">
         <v>576</v>
       </c>
       <c r="E12" s="10">
         <v>30</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="10">
         <v>15</v>
       </c>
-      <c r="I12">
-        <v>40</v>
-      </c>
-      <c r="J12">
-        <v>569</v>
-      </c>
-      <c r="K12">
+      <c r="I12" s="10">
+        <v>40</v>
+      </c>
+      <c r="J12" s="14">
+        <v>986</v>
+      </c>
+      <c r="K12" s="10">
         <v>112</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="10">
         <v>15</v>
       </c>
-      <c r="N12">
-        <v>20</v>
-      </c>
-      <c r="O12">
-        <v>40</v>
-      </c>
-      <c r="P12">
-        <v>85</v>
-      </c>
-      <c r="Q12">
+      <c r="N12" s="10">
+        <v>20</v>
+      </c>
+      <c r="O12" s="10">
+        <v>40</v>
+      </c>
+      <c r="P12" s="10">
+        <v>1048</v>
+      </c>
+      <c r="Q12" s="10">
         <v>43</v>
       </c>
-      <c r="R12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="R12" s="10">
+        <v>20</v>
+      </c>
+      <c r="T12" s="10">
+        <v>20</v>
+      </c>
+      <c r="U12" s="10">
+        <v>40</v>
+      </c>
+      <c r="V12" s="14">
+        <v>1115</v>
+      </c>
+      <c r="W12" s="10">
+        <v>43</v>
+      </c>
+      <c r="X12" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="10">
         <v>27</v>
       </c>
       <c r="B13" s="10">
         <v>70</v>
       </c>
+      <c r="C13" s="10">
+        <v>1032</v>
+      </c>
       <c r="D13" s="10">
         <v>667</v>
       </c>
       <c r="E13" s="10">
         <v>31</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="10">
         <v>19</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="10">
         <v>51</v>
       </c>
-      <c r="J13">
-        <v>549</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="14">
+        <v>1065</v>
+      </c>
+      <c r="K13" s="10">
         <v>198</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="10">
         <v>19</v>
       </c>
-      <c r="N13">
-        <v>20</v>
-      </c>
-      <c r="O13">
+      <c r="N13" s="10">
+        <v>20</v>
+      </c>
+      <c r="O13" s="10">
         <v>41</v>
       </c>
-      <c r="P13">
-        <v>89</v>
-      </c>
-      <c r="Q13">
+      <c r="P13" s="10">
+        <v>1073</v>
+      </c>
+      <c r="Q13" s="10">
         <v>48</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="10">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="T13" s="10">
+        <v>20</v>
+      </c>
+      <c r="U13" s="10">
+        <v>41</v>
+      </c>
+      <c r="V13" s="14">
+        <v>1057</v>
+      </c>
+      <c r="W13" s="10">
+        <v>48</v>
+      </c>
+      <c r="X13" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="10">
         <v>20</v>
       </c>
       <c r="B14" s="10">
         <v>62</v>
       </c>
+      <c r="C14" s="10">
+        <v>998</v>
+      </c>
       <c r="D14" s="10">
         <v>636</v>
       </c>
       <c r="E14" s="10">
         <v>29</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="10">
         <v>21</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="10">
         <v>60</v>
       </c>
-      <c r="J14">
-        <v>524</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="14">
+        <v>925</v>
+      </c>
+      <c r="K14" s="10">
         <v>165</v>
       </c>
-      <c r="L14">
-        <v>20</v>
-      </c>
-      <c r="N14">
-        <v>10</v>
-      </c>
-      <c r="O14">
-        <v>40</v>
-      </c>
-      <c r="P14">
-        <v>96</v>
-      </c>
-      <c r="Q14">
+      <c r="L14" s="10">
+        <v>20</v>
+      </c>
+      <c r="N14" s="10">
+        <v>10</v>
+      </c>
+      <c r="O14" s="10">
+        <v>40</v>
+      </c>
+      <c r="P14" s="10">
+        <v>1034</v>
+      </c>
+      <c r="Q14" s="10">
         <v>49</v>
       </c>
-      <c r="R14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="R14" s="10">
+        <v>10</v>
+      </c>
+      <c r="T14" s="10">
+        <v>10</v>
+      </c>
+      <c r="U14" s="10">
+        <v>40</v>
+      </c>
+      <c r="V14" s="14">
+        <v>1017</v>
+      </c>
+      <c r="W14" s="10">
+        <v>49</v>
+      </c>
+      <c r="X14" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="10">
         <v>31</v>
       </c>
       <c r="B15" s="10">
         <v>69</v>
       </c>
+      <c r="C15" s="10">
+        <v>1045</v>
+      </c>
       <c r="D15" s="14">
         <v>646</v>
       </c>
       <c r="E15" s="10">
         <v>30</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="10">
         <v>16</v>
       </c>
-      <c r="I15">
-        <v>40</v>
-      </c>
-      <c r="J15">
-        <v>566</v>
-      </c>
-      <c r="K15">
+      <c r="I15" s="10">
+        <v>40</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1099</v>
+      </c>
+      <c r="K15" s="10">
         <v>161</v>
       </c>
-      <c r="L15">
-        <v>20</v>
-      </c>
-      <c r="N15">
-        <v>20</v>
-      </c>
-      <c r="O15">
+      <c r="L15" s="10">
+        <v>20</v>
+      </c>
+      <c r="N15" s="10">
+        <v>20</v>
+      </c>
+      <c r="O15" s="10">
         <v>44</v>
       </c>
-      <c r="P15">
-        <v>97</v>
-      </c>
-      <c r="Q15">
-        <v>50</v>
-      </c>
-      <c r="R15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="P15" s="10">
+        <v>1097</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>50</v>
+      </c>
+      <c r="R15" s="10">
+        <v>20</v>
+      </c>
+      <c r="T15" s="10">
+        <v>20</v>
+      </c>
+      <c r="U15" s="10">
+        <v>44</v>
+      </c>
+      <c r="V15" s="14">
+        <v>1108</v>
+      </c>
+      <c r="W15" s="10">
+        <v>50</v>
+      </c>
+      <c r="X15" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="10">
         <v>31</v>
       </c>
       <c r="B16" s="10">
         <v>61</v>
       </c>
+      <c r="C16" s="10">
+        <v>968</v>
+      </c>
       <c r="D16" s="10">
         <v>697</v>
       </c>
       <c r="E16" s="10">
         <v>20</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="10">
         <v>19</v>
       </c>
-      <c r="I16">
-        <v>50</v>
-      </c>
-      <c r="J16">
-        <v>596</v>
-      </c>
-      <c r="K16">
+      <c r="I16" s="10">
+        <v>50</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1104</v>
+      </c>
+      <c r="K16" s="10">
         <v>170</v>
       </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-      <c r="N16">
-        <v>20</v>
-      </c>
-      <c r="O16">
+      <c r="L16" s="10">
+        <v>20</v>
+      </c>
+      <c r="N16" s="10">
+        <v>20</v>
+      </c>
+      <c r="O16" s="10">
         <v>36</v>
       </c>
-      <c r="P16">
-        <v>100</v>
-      </c>
-      <c r="Q16">
-        <v>50</v>
-      </c>
-      <c r="R16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="P16" s="10">
+        <v>1071</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>50</v>
+      </c>
+      <c r="R16" s="10">
+        <v>20</v>
+      </c>
+      <c r="T16" s="10">
+        <v>20</v>
+      </c>
+      <c r="U16" s="10">
+        <v>36</v>
+      </c>
+      <c r="V16" s="14">
+        <v>1081</v>
+      </c>
+      <c r="W16" s="10">
+        <v>50</v>
+      </c>
+      <c r="X16" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="10">
         <v>27</v>
       </c>
       <c r="B17" s="10">
         <v>60</v>
       </c>
+      <c r="C17" s="10">
+        <v>987</v>
+      </c>
       <c r="D17" s="10">
         <v>669</v>
       </c>
       <c r="E17" s="10">
         <v>31</v>
       </c>
-      <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="10">
+        <v>20</v>
+      </c>
+      <c r="I17" s="10">
         <v>60</v>
       </c>
-      <c r="J17">
-        <v>522</v>
-      </c>
-      <c r="K17">
+      <c r="J17" s="14">
+        <v>986</v>
+      </c>
+      <c r="K17" s="10">
         <v>71</v>
       </c>
-      <c r="L17">
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <v>10</v>
-      </c>
-      <c r="O17">
+      <c r="L17" s="10">
+        <v>20</v>
+      </c>
+      <c r="N17" s="10">
+        <v>10</v>
+      </c>
+      <c r="O17" s="10">
         <v>44</v>
       </c>
-      <c r="P17">
-        <v>101</v>
-      </c>
-      <c r="Q17">
-        <v>50</v>
-      </c>
-      <c r="R17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="P17" s="10">
+        <v>1041</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>50</v>
+      </c>
+      <c r="R17" s="10">
+        <v>20</v>
+      </c>
+      <c r="T17" s="10">
+        <v>10</v>
+      </c>
+      <c r="U17" s="10">
+        <v>44</v>
+      </c>
+      <c r="V17" s="14">
+        <v>894</v>
+      </c>
+      <c r="W17" s="10">
+        <v>50</v>
+      </c>
+      <c r="X17" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="10">
         <v>20</v>
       </c>
       <c r="B18" s="10">
         <v>50</v>
+      </c>
+      <c r="C18" s="10">
+        <v>969</v>
       </c>
       <c r="D18" s="10">
         <v>183</v>
@@ -1919,1583 +2230,2231 @@
       <c r="E18" s="10">
         <v>32</v>
       </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>50</v>
-      </c>
-      <c r="J18">
-        <v>536</v>
-      </c>
-      <c r="K18">
+      <c r="H18" s="10">
+        <v>10</v>
+      </c>
+      <c r="I18" s="10">
+        <v>50</v>
+      </c>
+      <c r="J18" s="14">
+        <v>1045</v>
+      </c>
+      <c r="K18" s="10">
         <v>152</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="10">
         <v>21</v>
       </c>
-      <c r="N18">
-        <v>20</v>
-      </c>
-      <c r="O18">
+      <c r="N18" s="10">
+        <v>20</v>
+      </c>
+      <c r="O18" s="10">
         <v>35</v>
       </c>
-      <c r="P18">
-        <v>95</v>
-      </c>
-      <c r="Q18">
+      <c r="P18" s="10">
+        <v>1031</v>
+      </c>
+      <c r="Q18" s="10">
         <v>51</v>
       </c>
-      <c r="R18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="R18" s="10">
+        <v>10</v>
+      </c>
+      <c r="T18" s="10">
+        <v>20</v>
+      </c>
+      <c r="U18" s="10">
+        <v>35</v>
+      </c>
+      <c r="V18" s="14">
+        <v>1026</v>
+      </c>
+      <c r="W18" s="10">
+        <v>51</v>
+      </c>
+      <c r="X18" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="10">
         <v>31</v>
       </c>
       <c r="B19" s="10">
         <v>50</v>
       </c>
+      <c r="C19" s="10">
+        <v>991</v>
+      </c>
       <c r="D19" s="10">
         <v>206</v>
       </c>
       <c r="E19" s="10">
         <v>26</v>
       </c>
-      <c r="H19">
-        <v>30</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="10">
+        <v>30</v>
+      </c>
+      <c r="I19" s="10">
         <v>42</v>
       </c>
-      <c r="J19">
-        <v>516</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="14">
+        <v>782</v>
+      </c>
+      <c r="K19" s="10">
         <v>55</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="10">
         <v>19</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="10">
         <v>17</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="10">
         <v>41</v>
       </c>
-      <c r="P19">
-        <v>97</v>
-      </c>
-      <c r="Q19">
-        <v>40</v>
-      </c>
-      <c r="R19">
+      <c r="P19" s="10">
+        <v>1039</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>40</v>
+      </c>
+      <c r="R19" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="T19" s="10">
+        <v>17</v>
+      </c>
+      <c r="U19" s="10">
+        <v>41</v>
+      </c>
+      <c r="V19" s="14">
+        <v>896</v>
+      </c>
+      <c r="W19" s="10">
+        <v>40</v>
+      </c>
+      <c r="X19" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="10">
         <v>29</v>
       </c>
       <c r="B20" s="10">
         <v>60</v>
       </c>
+      <c r="C20" s="10">
+        <v>968</v>
+      </c>
       <c r="D20" s="10">
         <v>587</v>
       </c>
       <c r="E20" s="10">
         <v>24</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="10">
         <v>15</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="10">
         <v>68</v>
       </c>
-      <c r="J20">
-        <v>539</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="14">
+        <v>1116</v>
+      </c>
+      <c r="K20" s="10">
         <v>106</v>
       </c>
-      <c r="L20">
-        <v>20</v>
-      </c>
-      <c r="N20">
-        <v>10</v>
-      </c>
-      <c r="O20">
+      <c r="L20" s="10">
+        <v>20</v>
+      </c>
+      <c r="N20" s="10">
+        <v>10</v>
+      </c>
+      <c r="O20" s="10">
         <v>39</v>
       </c>
-      <c r="P20">
-        <v>104</v>
-      </c>
-      <c r="Q20">
-        <v>50</v>
-      </c>
-      <c r="R20">
+      <c r="P20" s="10">
+        <v>1055</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>50</v>
+      </c>
+      <c r="R20" s="10">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="T20" s="10">
+        <v>10</v>
+      </c>
+      <c r="U20" s="10">
+        <v>39</v>
+      </c>
+      <c r="V20" s="14">
+        <v>736</v>
+      </c>
+      <c r="W20" s="10">
+        <v>50</v>
+      </c>
+      <c r="X20" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="10">
         <v>60</v>
       </c>
+      <c r="C21" s="10">
+        <v>990</v>
+      </c>
       <c r="D21" s="10">
         <v>739</v>
       </c>
       <c r="E21" s="10">
         <v>30</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="10">
         <v>15</v>
       </c>
-      <c r="I21">
-        <v>50</v>
-      </c>
-      <c r="J21">
-        <v>480</v>
-      </c>
-      <c r="K21">
+      <c r="I21" s="10">
+        <v>50</v>
+      </c>
+      <c r="J21" s="14">
+        <v>875</v>
+      </c>
+      <c r="K21" s="10">
         <v>162</v>
       </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-      <c r="N21">
-        <v>20</v>
-      </c>
-      <c r="O21">
-        <v>40</v>
-      </c>
-      <c r="P21">
-        <v>96</v>
-      </c>
-      <c r="Q21">
-        <v>50</v>
-      </c>
-      <c r="R21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="L21" s="10">
+        <v>10</v>
+      </c>
+      <c r="N21" s="10">
+        <v>20</v>
+      </c>
+      <c r="O21" s="10">
+        <v>40</v>
+      </c>
+      <c r="P21" s="10">
+        <v>1079</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>50</v>
+      </c>
+      <c r="R21" s="10">
+        <v>20</v>
+      </c>
+      <c r="T21" s="10">
+        <v>20</v>
+      </c>
+      <c r="U21" s="10">
+        <v>40</v>
+      </c>
+      <c r="V21" s="14">
+        <v>712</v>
+      </c>
+      <c r="W21" s="10">
+        <v>50</v>
+      </c>
+      <c r="X21" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="10">
         <v>30</v>
       </c>
       <c r="B22" s="10">
         <v>60</v>
       </c>
+      <c r="C22" s="10">
+        <v>967</v>
+      </c>
       <c r="D22" s="10">
         <v>432</v>
       </c>
       <c r="E22" s="10">
         <v>30</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="10">
         <v>19</v>
       </c>
-      <c r="I22">
-        <v>50</v>
-      </c>
-      <c r="J22">
-        <v>498</v>
-      </c>
-      <c r="K22">
+      <c r="I22" s="10">
+        <v>50</v>
+      </c>
+      <c r="J22" s="14">
+        <v>909</v>
+      </c>
+      <c r="K22" s="10">
         <v>160</v>
       </c>
-      <c r="L22">
-        <v>20</v>
-      </c>
-      <c r="N22">
-        <v>10</v>
-      </c>
-      <c r="O22">
+      <c r="L22" s="10">
+        <v>20</v>
+      </c>
+      <c r="N22" s="10">
+        <v>10</v>
+      </c>
+      <c r="O22" s="10">
         <v>42</v>
       </c>
-      <c r="P22">
-        <v>86</v>
-      </c>
-      <c r="Q22">
-        <v>50</v>
-      </c>
-      <c r="R22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="P22" s="10">
+        <v>1064</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>50</v>
+      </c>
+      <c r="R22" s="10">
+        <v>10</v>
+      </c>
+      <c r="T22" s="10">
+        <v>10</v>
+      </c>
+      <c r="U22" s="10">
+        <v>42</v>
+      </c>
+      <c r="V22" s="14">
+        <v>1081</v>
+      </c>
+      <c r="W22" s="10">
+        <v>50</v>
+      </c>
+      <c r="X22" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="10">
         <v>31</v>
       </c>
       <c r="B23" s="10">
         <v>60</v>
       </c>
+      <c r="C23" s="10">
+        <v>942</v>
+      </c>
       <c r="D23" s="10">
         <v>889</v>
       </c>
       <c r="E23" s="10">
         <v>30</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="10">
         <v>12</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="10">
         <v>54</v>
       </c>
-      <c r="J23">
-        <v>406</v>
-      </c>
-      <c r="K23">
+      <c r="J23" s="14">
+        <v>980</v>
+      </c>
+      <c r="K23" s="10">
         <v>131</v>
       </c>
-      <c r="L23">
-        <v>20</v>
-      </c>
-      <c r="N23">
+      <c r="L23" s="10">
+        <v>20</v>
+      </c>
+      <c r="N23" s="10">
         <v>25</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="10">
         <v>44</v>
       </c>
-      <c r="P23">
-        <v>83</v>
-      </c>
-      <c r="Q23">
-        <v>40</v>
-      </c>
-      <c r="R23">
+      <c r="P23" s="10">
+        <v>873</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>40</v>
+      </c>
+      <c r="R23" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="T23" s="10">
+        <v>25</v>
+      </c>
+      <c r="U23" s="10">
+        <v>44</v>
+      </c>
+      <c r="V23" s="14">
+        <v>1103</v>
+      </c>
+      <c r="W23" s="10">
+        <v>40</v>
+      </c>
+      <c r="X23" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="10">
         <v>22</v>
       </c>
       <c r="B24" s="10">
         <v>63</v>
       </c>
+      <c r="C24" s="10">
+        <v>955</v>
+      </c>
       <c r="D24" s="10">
         <v>767</v>
       </c>
       <c r="E24" s="10">
         <v>28</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="10">
         <v>17</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="10">
         <v>57</v>
       </c>
-      <c r="J24">
-        <v>413</v>
-      </c>
-      <c r="K24">
+      <c r="J24" s="14">
+        <v>1046</v>
+      </c>
+      <c r="K24" s="10">
         <v>100</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="10">
         <v>21</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="10">
         <v>16</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="10">
         <v>34</v>
       </c>
-      <c r="P24">
-        <v>90</v>
-      </c>
-      <c r="Q24">
-        <v>50</v>
-      </c>
-      <c r="R24">
+      <c r="P24" s="10">
+        <v>918</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>50</v>
+      </c>
+      <c r="R24" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="T24" s="10">
+        <v>16</v>
+      </c>
+      <c r="U24" s="10">
+        <v>34</v>
+      </c>
+      <c r="V24" s="14">
+        <v>1005</v>
+      </c>
+      <c r="W24" s="10">
+        <v>50</v>
+      </c>
+      <c r="X24" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="10">
         <v>27</v>
       </c>
       <c r="B25" s="10">
         <v>57</v>
       </c>
+      <c r="C25" s="10">
+        <v>999</v>
+      </c>
       <c r="D25" s="10">
         <v>1030</v>
       </c>
       <c r="E25" s="10">
         <v>21</v>
       </c>
-      <c r="H25">
-        <v>20</v>
-      </c>
-      <c r="I25">
-        <v>50</v>
-      </c>
-      <c r="J25">
-        <v>426</v>
-      </c>
-      <c r="K25">
+      <c r="H25" s="10">
+        <v>20</v>
+      </c>
+      <c r="I25" s="10">
+        <v>50</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1072</v>
+      </c>
+      <c r="K25" s="10">
         <v>172</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="10">
         <v>18</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="10">
         <v>18</v>
       </c>
-      <c r="O25">
-        <v>40</v>
-      </c>
-      <c r="P25">
-        <v>91</v>
-      </c>
-      <c r="Q25">
+      <c r="O25" s="10">
+        <v>40</v>
+      </c>
+      <c r="P25" s="10">
+        <v>965</v>
+      </c>
+      <c r="Q25" s="10">
         <v>45</v>
       </c>
-      <c r="R25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="R25" s="10">
+        <v>10</v>
+      </c>
+      <c r="T25" s="10">
+        <v>18</v>
+      </c>
+      <c r="U25" s="10">
+        <v>40</v>
+      </c>
+      <c r="V25" s="14">
+        <v>1106</v>
+      </c>
+      <c r="W25" s="10">
+        <v>45</v>
+      </c>
+      <c r="X25" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="10">
         <v>30</v>
       </c>
       <c r="B26" s="10">
         <v>70</v>
       </c>
+      <c r="C26" s="10">
+        <v>919</v>
+      </c>
       <c r="D26" s="10">
         <v>476</v>
       </c>
       <c r="E26" s="10">
         <v>34</v>
       </c>
-      <c r="H26">
-        <v>20</v>
-      </c>
-      <c r="I26">
+      <c r="H26" s="10">
+        <v>20</v>
+      </c>
+      <c r="I26" s="10">
         <v>60</v>
       </c>
-      <c r="J26">
-        <v>348</v>
-      </c>
-      <c r="K26">
+      <c r="J26" s="14">
+        <v>910</v>
+      </c>
+      <c r="K26" s="10">
         <v>141</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="10">
         <v>13</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="10">
         <v>13</v>
       </c>
-      <c r="O26">
-        <v>40</v>
-      </c>
-      <c r="P26">
-        <v>100</v>
-      </c>
-      <c r="Q26">
+      <c r="O26" s="10">
+        <v>40</v>
+      </c>
+      <c r="P26" s="10">
+        <v>1064</v>
+      </c>
+      <c r="Q26" s="10">
         <v>47</v>
       </c>
-      <c r="R26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="R26" s="10">
+        <v>20</v>
+      </c>
+      <c r="T26" s="10">
+        <v>13</v>
+      </c>
+      <c r="U26" s="10">
+        <v>40</v>
+      </c>
+      <c r="V26" s="14">
+        <v>1092</v>
+      </c>
+      <c r="W26" s="10">
+        <v>47</v>
+      </c>
+      <c r="X26" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="10">
         <v>19</v>
       </c>
       <c r="B27" s="10">
         <v>62</v>
       </c>
+      <c r="C27" s="10">
+        <v>955</v>
+      </c>
       <c r="D27" s="10">
         <v>272</v>
       </c>
       <c r="E27" s="10">
         <v>26</v>
       </c>
-      <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27">
-        <v>50</v>
-      </c>
-      <c r="J27">
-        <v>329</v>
-      </c>
-      <c r="K27">
+      <c r="H27" s="10">
+        <v>10</v>
+      </c>
+      <c r="I27" s="10">
+        <v>50</v>
+      </c>
+      <c r="J27" s="14">
+        <v>869</v>
+      </c>
+      <c r="K27" s="10">
         <v>82</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="10">
         <v>16</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="10">
         <v>16</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="10">
         <v>44</v>
       </c>
-      <c r="P27">
-        <v>105</v>
-      </c>
-      <c r="Q27">
+      <c r="P27" s="10">
+        <v>1031</v>
+      </c>
+      <c r="Q27" s="10">
         <v>52</v>
       </c>
-      <c r="R27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="R27" s="10">
+        <v>20</v>
+      </c>
+      <c r="T27" s="10">
+        <v>16</v>
+      </c>
+      <c r="U27" s="10">
+        <v>44</v>
+      </c>
+      <c r="V27" s="14">
+        <v>1029</v>
+      </c>
+      <c r="W27" s="10">
+        <v>52</v>
+      </c>
+      <c r="X27" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="10">
         <v>30</v>
       </c>
       <c r="B28" s="10">
         <v>59</v>
       </c>
+      <c r="C28" s="10">
+        <v>958</v>
+      </c>
       <c r="D28" s="10">
         <v>901</v>
       </c>
       <c r="E28" s="10">
         <v>33</v>
       </c>
-      <c r="H28">
-        <v>20</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="10">
+        <v>20</v>
+      </c>
+      <c r="I28" s="10">
         <v>60</v>
       </c>
-      <c r="J28">
-        <v>347</v>
-      </c>
-      <c r="K28">
+      <c r="J28" s="14">
+        <v>1034</v>
+      </c>
+      <c r="K28" s="10">
         <v>200</v>
       </c>
-      <c r="L28">
-        <v>20</v>
-      </c>
-      <c r="N28">
-        <v>20</v>
-      </c>
-      <c r="O28">
+      <c r="L28" s="10">
+        <v>20</v>
+      </c>
+      <c r="N28" s="10">
+        <v>20</v>
+      </c>
+      <c r="O28" s="10">
         <v>36</v>
       </c>
-      <c r="P28">
-        <v>101</v>
-      </c>
-      <c r="Q28">
+      <c r="P28" s="10">
+        <v>1053</v>
+      </c>
+      <c r="Q28" s="10">
         <v>48</v>
       </c>
-      <c r="R28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="R28" s="10">
+        <v>20</v>
+      </c>
+      <c r="T28" s="10">
+        <v>20</v>
+      </c>
+      <c r="U28" s="10">
+        <v>36</v>
+      </c>
+      <c r="V28" s="14">
+        <v>972</v>
+      </c>
+      <c r="W28" s="10">
+        <v>48</v>
+      </c>
+      <c r="X28" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="10">
         <v>30</v>
       </c>
       <c r="B29" s="10">
         <v>60</v>
       </c>
+      <c r="C29" s="10">
+        <v>1036</v>
+      </c>
       <c r="D29" s="10">
         <v>935</v>
       </c>
       <c r="E29" s="10">
         <v>31</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="10">
         <v>23</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="10">
         <v>51</v>
       </c>
-      <c r="J29">
-        <v>353</v>
-      </c>
-      <c r="K29">
+      <c r="J29" s="14">
+        <v>1067</v>
+      </c>
+      <c r="K29" s="10">
         <v>133</v>
       </c>
-      <c r="L29">
-        <v>20</v>
-      </c>
-      <c r="N29">
+      <c r="L29" s="10">
+        <v>20</v>
+      </c>
+      <c r="N29" s="10">
         <v>11</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="10">
         <v>43</v>
       </c>
-      <c r="P29">
-        <v>79</v>
-      </c>
-      <c r="Q29">
+      <c r="P29" s="10">
+        <v>1082</v>
+      </c>
+      <c r="Q29" s="10">
         <v>48</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="T29" s="10">
+        <v>11</v>
+      </c>
+      <c r="U29" s="10">
+        <v>43</v>
+      </c>
+      <c r="V29" s="14">
+        <v>1014</v>
+      </c>
+      <c r="W29" s="10">
+        <v>48</v>
+      </c>
+      <c r="X29" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="10">
         <v>30</v>
       </c>
       <c r="B30" s="10">
         <v>71</v>
       </c>
+      <c r="C30" s="10">
+        <v>1047</v>
+      </c>
       <c r="D30" s="10">
         <v>525</v>
       </c>
       <c r="E30" s="10">
         <v>31</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="10">
         <v>17</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="10">
         <v>43</v>
       </c>
-      <c r="J30">
-        <v>336</v>
-      </c>
-      <c r="K30">
+      <c r="J30" s="14">
+        <v>933</v>
+      </c>
+      <c r="K30" s="10">
         <v>87</v>
       </c>
-      <c r="L30">
-        <v>20</v>
-      </c>
-      <c r="N30">
+      <c r="L30" s="10">
+        <v>20</v>
+      </c>
+      <c r="N30" s="10">
         <v>19</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="10">
         <v>38</v>
       </c>
-      <c r="P30">
-        <v>85</v>
-      </c>
-      <c r="Q30">
-        <v>50</v>
-      </c>
-      <c r="R30">
+      <c r="P30" s="10">
+        <v>1073</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>50</v>
+      </c>
+      <c r="R30" s="10">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="T30" s="10">
+        <v>19</v>
+      </c>
+      <c r="U30" s="10">
+        <v>38</v>
+      </c>
+      <c r="V30" s="14">
+        <v>1092</v>
+      </c>
+      <c r="W30" s="10">
+        <v>50</v>
+      </c>
+      <c r="X30" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="10">
         <v>31</v>
       </c>
       <c r="B31" s="10">
         <v>60</v>
       </c>
+      <c r="C31" s="10">
+        <v>1026</v>
+      </c>
       <c r="D31" s="10">
         <v>495</v>
       </c>
       <c r="E31" s="10">
         <v>24</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="10">
         <v>14</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="10">
         <v>57</v>
       </c>
-      <c r="J31">
-        <v>315</v>
-      </c>
-      <c r="K31">
+      <c r="J31" s="14">
+        <v>1003</v>
+      </c>
+      <c r="K31" s="10">
         <v>152</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="10">
         <v>19</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="10">
         <v>12</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="10">
         <v>42</v>
       </c>
-      <c r="P31">
-        <v>84</v>
-      </c>
-      <c r="Q31">
+      <c r="P31" s="10">
+        <v>963</v>
+      </c>
+      <c r="Q31" s="10">
         <v>43</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="T31" s="10">
+        <v>12</v>
+      </c>
+      <c r="U31" s="10">
+        <v>42</v>
+      </c>
+      <c r="V31" s="14">
+        <v>1104</v>
+      </c>
+      <c r="W31" s="10">
+        <v>43</v>
+      </c>
+      <c r="X31" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="10">
         <v>24</v>
       </c>
       <c r="B32" s="10">
         <v>70</v>
       </c>
+      <c r="C32" s="10">
+        <v>1015</v>
+      </c>
       <c r="D32" s="10">
         <v>535</v>
       </c>
       <c r="E32" s="10">
         <v>30</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="10">
         <v>15</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="10">
         <v>53</v>
       </c>
-      <c r="J32">
-        <v>435</v>
-      </c>
-      <c r="K32">
+      <c r="J32" s="14">
+        <v>1083</v>
+      </c>
+      <c r="K32" s="10">
         <v>174</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="10">
         <v>15</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="10">
         <v>17</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="10">
         <v>38</v>
       </c>
-      <c r="P32">
-        <v>104</v>
-      </c>
-      <c r="Q32">
+      <c r="P32" s="10">
+        <v>1075</v>
+      </c>
+      <c r="Q32" s="10">
         <v>37</v>
       </c>
-      <c r="R32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="R32" s="10">
+        <v>20</v>
+      </c>
+      <c r="T32" s="10">
+        <v>17</v>
+      </c>
+      <c r="U32" s="10">
+        <v>38</v>
+      </c>
+      <c r="V32" s="14">
+        <v>1063</v>
+      </c>
+      <c r="W32" s="10">
+        <v>37</v>
+      </c>
+      <c r="X32" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="10">
         <v>24</v>
       </c>
       <c r="B33" s="10">
         <v>60</v>
       </c>
+      <c r="C33" s="10">
+        <v>994</v>
+      </c>
       <c r="D33" s="10">
         <v>880</v>
       </c>
       <c r="E33" s="10">
         <v>30</v>
       </c>
-      <c r="H33">
-        <v>20</v>
-      </c>
-      <c r="I33">
+      <c r="H33" s="10">
+        <v>20</v>
+      </c>
+      <c r="I33" s="10">
         <v>51</v>
       </c>
-      <c r="J33">
-        <v>325</v>
-      </c>
-      <c r="K33">
+      <c r="J33" s="14">
+        <v>1044</v>
+      </c>
+      <c r="K33" s="10">
         <v>164</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="10">
         <v>16</v>
       </c>
-      <c r="N33">
-        <v>20</v>
-      </c>
-      <c r="O33">
-        <v>40</v>
-      </c>
-      <c r="P33">
-        <v>98</v>
-      </c>
-      <c r="Q33">
-        <v>40</v>
-      </c>
-      <c r="R33">
+      <c r="N33" s="10">
+        <v>20</v>
+      </c>
+      <c r="O33" s="10">
+        <v>40</v>
+      </c>
+      <c r="P33" s="10">
+        <v>1056</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>40</v>
+      </c>
+      <c r="R33" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="T33" s="10">
+        <v>20</v>
+      </c>
+      <c r="U33" s="10">
+        <v>40</v>
+      </c>
+      <c r="V33" s="14">
+        <v>1061</v>
+      </c>
+      <c r="W33" s="10">
+        <v>40</v>
+      </c>
+      <c r="X33" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="10">
         <v>30</v>
       </c>
       <c r="B34" s="10">
         <v>60</v>
       </c>
+      <c r="C34" s="10">
+        <v>1024</v>
+      </c>
       <c r="D34" s="10">
         <v>921</v>
       </c>
       <c r="E34" s="10">
         <v>30</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="10">
         <v>11</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="10">
         <v>47</v>
       </c>
-      <c r="J34">
-        <v>433</v>
-      </c>
-      <c r="K34">
+      <c r="J34" s="14">
+        <v>987</v>
+      </c>
+      <c r="K34" s="10">
         <v>146</v>
       </c>
-      <c r="L34">
-        <v>20</v>
-      </c>
-      <c r="N34">
-        <v>10</v>
-      </c>
-      <c r="O34">
-        <v>40</v>
-      </c>
-      <c r="P34">
-        <v>110</v>
-      </c>
-      <c r="Q34">
-        <v>50</v>
-      </c>
-      <c r="R34">
+      <c r="L34" s="10">
+        <v>20</v>
+      </c>
+      <c r="N34" s="10">
+        <v>10</v>
+      </c>
+      <c r="O34" s="10">
+        <v>40</v>
+      </c>
+      <c r="P34" s="10">
+        <v>1073</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>50</v>
+      </c>
+      <c r="R34" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="T34" s="10">
+        <v>10</v>
+      </c>
+      <c r="U34" s="10">
+        <v>40</v>
+      </c>
+      <c r="V34" s="14">
+        <v>1084</v>
+      </c>
+      <c r="W34" s="10">
+        <v>50</v>
+      </c>
+      <c r="X34" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="10">
         <v>30</v>
       </c>
       <c r="B35" s="10">
         <v>60</v>
       </c>
+      <c r="C35" s="10">
+        <v>1022</v>
+      </c>
       <c r="D35" s="10">
         <v>715</v>
       </c>
       <c r="E35" s="10">
         <v>30</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="10">
         <v>19</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="10">
         <v>49</v>
       </c>
-      <c r="J35">
-        <v>335</v>
-      </c>
-      <c r="K35">
+      <c r="J35" s="14">
+        <v>800</v>
+      </c>
+      <c r="K35" s="10">
         <v>127</v>
       </c>
-      <c r="L35">
-        <v>20</v>
-      </c>
-      <c r="N35">
-        <v>20</v>
-      </c>
-      <c r="O35">
-        <v>40</v>
-      </c>
-      <c r="P35">
-        <v>86</v>
-      </c>
-      <c r="Q35">
+      <c r="L35" s="10">
+        <v>20</v>
+      </c>
+      <c r="N35" s="10">
+        <v>20</v>
+      </c>
+      <c r="O35" s="10">
+        <v>40</v>
+      </c>
+      <c r="P35" s="10">
+        <v>1082</v>
+      </c>
+      <c r="Q35" s="10">
         <v>52</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="10">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="T35" s="10">
+        <v>20</v>
+      </c>
+      <c r="U35" s="10">
+        <v>40</v>
+      </c>
+      <c r="V35" s="14">
+        <v>1096</v>
+      </c>
+      <c r="W35" s="10">
+        <v>52</v>
+      </c>
+      <c r="X35" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="10">
         <v>20</v>
       </c>
       <c r="B36" s="10">
         <v>64</v>
       </c>
+      <c r="C36" s="10">
+        <v>1043</v>
+      </c>
       <c r="D36" s="10">
         <v>489</v>
       </c>
       <c r="E36" s="10">
         <v>30</v>
       </c>
-      <c r="H36">
-        <v>20</v>
-      </c>
-      <c r="I36">
+      <c r="H36" s="10">
+        <v>20</v>
+      </c>
+      <c r="I36" s="10">
         <v>62</v>
       </c>
-      <c r="J36">
-        <v>313</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="14">
+        <v>851</v>
+      </c>
+      <c r="K36" s="10">
         <v>144</v>
       </c>
-      <c r="L36">
-        <v>20</v>
-      </c>
-      <c r="N36">
-        <v>20</v>
-      </c>
-      <c r="O36">
-        <v>40</v>
-      </c>
-      <c r="P36">
-        <v>63</v>
-      </c>
-      <c r="Q36">
+      <c r="L36" s="10">
+        <v>20</v>
+      </c>
+      <c r="N36" s="10">
+        <v>20</v>
+      </c>
+      <c r="O36" s="10">
+        <v>40</v>
+      </c>
+      <c r="P36" s="10">
+        <v>1043</v>
+      </c>
+      <c r="Q36" s="10">
         <v>58</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="10">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="T36" s="10">
+        <v>20</v>
+      </c>
+      <c r="U36" s="10">
+        <v>40</v>
+      </c>
+      <c r="V36" s="14">
+        <v>1077</v>
+      </c>
+      <c r="W36" s="10">
+        <v>58</v>
+      </c>
+      <c r="X36" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="10">
         <v>30</v>
       </c>
       <c r="B37" s="10">
         <v>65</v>
       </c>
+      <c r="C37" s="10">
+        <v>862</v>
+      </c>
       <c r="D37" s="10">
         <v>673</v>
       </c>
       <c r="E37" s="10">
         <v>33</v>
       </c>
-      <c r="H37">
-        <v>10</v>
-      </c>
-      <c r="I37">
+      <c r="H37" s="10">
+        <v>10</v>
+      </c>
+      <c r="I37" s="10">
         <v>59</v>
       </c>
-      <c r="J37">
-        <v>429</v>
-      </c>
-      <c r="K37">
+      <c r="J37" s="14">
+        <v>940</v>
+      </c>
+      <c r="K37" s="10">
         <v>212</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="10">
         <v>19</v>
       </c>
-      <c r="N37">
-        <v>10</v>
-      </c>
-      <c r="O37">
+      <c r="N37" s="10">
+        <v>10</v>
+      </c>
+      <c r="O37" s="10">
         <v>43</v>
       </c>
-      <c r="P37">
-        <v>94</v>
-      </c>
-      <c r="Q37">
-        <v>40</v>
-      </c>
-      <c r="R37">
+      <c r="P37" s="10">
+        <v>1023</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>40</v>
+      </c>
+      <c r="R37" s="10">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="T37" s="10">
+        <v>10</v>
+      </c>
+      <c r="U37" s="10">
+        <v>43</v>
+      </c>
+      <c r="V37" s="14">
+        <v>934</v>
+      </c>
+      <c r="W37" s="10">
+        <v>40</v>
+      </c>
+      <c r="X37" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="10">
         <v>30</v>
       </c>
       <c r="B38" s="10">
         <v>53</v>
       </c>
+      <c r="C38" s="10">
+        <v>901</v>
+      </c>
       <c r="D38" s="10">
         <v>1120</v>
       </c>
       <c r="E38" s="10">
         <v>27</v>
       </c>
-      <c r="H38">
-        <v>20</v>
-      </c>
-      <c r="I38">
-        <v>40</v>
-      </c>
-      <c r="J38">
-        <v>394</v>
-      </c>
-      <c r="K38">
+      <c r="H38" s="10">
+        <v>20</v>
+      </c>
+      <c r="I38" s="10">
+        <v>40</v>
+      </c>
+      <c r="J38" s="14">
+        <v>1081</v>
+      </c>
+      <c r="K38" s="10">
         <v>124</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="10">
         <v>15</v>
       </c>
-      <c r="N38">
-        <v>20</v>
-      </c>
-      <c r="O38">
+      <c r="N38" s="10">
+        <v>20</v>
+      </c>
+      <c r="O38" s="10">
         <v>37</v>
       </c>
-      <c r="P38">
-        <v>91</v>
-      </c>
-      <c r="Q38">
+      <c r="P38" s="10">
+        <v>1058</v>
+      </c>
+      <c r="Q38" s="10">
         <v>45</v>
       </c>
-      <c r="R38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="R38" s="10">
+        <v>20</v>
+      </c>
+      <c r="T38" s="10">
+        <v>20</v>
+      </c>
+      <c r="U38" s="10">
+        <v>37</v>
+      </c>
+      <c r="V38" s="14">
+        <v>869</v>
+      </c>
+      <c r="W38" s="10">
+        <v>45</v>
+      </c>
+      <c r="X38" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="10">
         <v>26</v>
       </c>
       <c r="B39" s="10">
         <v>59</v>
       </c>
+      <c r="C39" s="10">
+        <v>937</v>
+      </c>
       <c r="D39" s="10">
         <v>506</v>
       </c>
       <c r="E39" s="10">
         <v>30</v>
       </c>
-      <c r="H39">
-        <v>20</v>
-      </c>
-      <c r="I39">
+      <c r="H39" s="10">
+        <v>20</v>
+      </c>
+      <c r="I39" s="10">
         <v>42</v>
       </c>
-      <c r="J39">
-        <v>358</v>
-      </c>
-      <c r="K39">
+      <c r="J39" s="14">
+        <v>1083</v>
+      </c>
+      <c r="K39" s="10">
         <v>107</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="10">
         <v>15</v>
       </c>
-      <c r="N39">
-        <v>10</v>
-      </c>
-      <c r="O39">
+      <c r="N39" s="10">
+        <v>10</v>
+      </c>
+      <c r="O39" s="10">
         <v>42</v>
       </c>
-      <c r="P39">
-        <v>91</v>
-      </c>
-      <c r="Q39">
+      <c r="P39" s="10">
+        <v>1080</v>
+      </c>
+      <c r="Q39" s="10">
         <v>55</v>
       </c>
-      <c r="R39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="R39" s="10">
+        <v>20</v>
+      </c>
+      <c r="T39" s="10">
+        <v>10</v>
+      </c>
+      <c r="U39" s="10">
+        <v>42</v>
+      </c>
+      <c r="V39" s="14">
+        <v>1091</v>
+      </c>
+      <c r="W39" s="10">
+        <v>55</v>
+      </c>
+      <c r="X39" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="10">
         <v>24</v>
       </c>
       <c r="B40" s="10">
         <v>62</v>
       </c>
+      <c r="C40" s="10">
+        <v>905</v>
+      </c>
       <c r="D40" s="10">
         <v>404</v>
       </c>
       <c r="E40" s="10">
         <v>21</v>
       </c>
-      <c r="H40">
-        <v>20</v>
-      </c>
-      <c r="I40">
+      <c r="H40" s="10">
+        <v>20</v>
+      </c>
+      <c r="I40" s="10">
         <v>48</v>
       </c>
-      <c r="J40">
-        <v>342</v>
-      </c>
-      <c r="K40">
+      <c r="J40" s="14">
+        <v>1028</v>
+      </c>
+      <c r="K40" s="10">
         <v>161</v>
       </c>
-      <c r="L40">
-        <v>20</v>
-      </c>
-      <c r="N40">
-        <v>20</v>
-      </c>
-      <c r="O40">
+      <c r="L40" s="10">
+        <v>20</v>
+      </c>
+      <c r="N40" s="10">
+        <v>20</v>
+      </c>
+      <c r="O40" s="10">
         <v>39</v>
       </c>
-      <c r="P40">
-        <v>92</v>
-      </c>
-      <c r="Q40">
-        <v>40</v>
-      </c>
-      <c r="R40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="P40" s="10">
+        <v>1075</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>40</v>
+      </c>
+      <c r="R40" s="10">
+        <v>10</v>
+      </c>
+      <c r="T40" s="10">
+        <v>20</v>
+      </c>
+      <c r="U40" s="10">
+        <v>39</v>
+      </c>
+      <c r="V40" s="14">
+        <v>1082</v>
+      </c>
+      <c r="W40" s="10">
+        <v>40</v>
+      </c>
+      <c r="X40" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="10">
         <v>30</v>
       </c>
       <c r="B41" s="10">
         <v>64</v>
       </c>
+      <c r="C41" s="10">
+        <v>883</v>
+      </c>
       <c r="D41" s="10">
         <v>600</v>
       </c>
       <c r="E41" s="10">
         <v>32</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="10">
         <v>13</v>
       </c>
-      <c r="I41">
-        <v>50</v>
-      </c>
-      <c r="J41">
-        <v>333</v>
-      </c>
-      <c r="K41">
+      <c r="I41" s="10">
+        <v>50</v>
+      </c>
+      <c r="J41" s="14">
+        <v>902</v>
+      </c>
+      <c r="K41" s="10">
         <v>150</v>
       </c>
-      <c r="L41">
-        <v>20</v>
-      </c>
-      <c r="N41">
-        <v>20</v>
-      </c>
-      <c r="O41">
-        <v>40</v>
-      </c>
-      <c r="P41">
-        <v>104</v>
-      </c>
-      <c r="Q41">
+      <c r="L41" s="10">
+        <v>20</v>
+      </c>
+      <c r="N41" s="10">
+        <v>20</v>
+      </c>
+      <c r="O41" s="10">
+        <v>40</v>
+      </c>
+      <c r="P41" s="10">
+        <v>964</v>
+      </c>
+      <c r="Q41" s="10">
         <v>54</v>
       </c>
-      <c r="R41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="R41" s="10">
+        <v>20</v>
+      </c>
+      <c r="T41" s="10">
+        <v>20</v>
+      </c>
+      <c r="U41" s="10">
+        <v>40</v>
+      </c>
+      <c r="V41" s="14">
+        <v>1088</v>
+      </c>
+      <c r="W41" s="10">
+        <v>54</v>
+      </c>
+      <c r="X41" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="10">
         <v>24</v>
       </c>
       <c r="B42" s="10">
         <v>56</v>
       </c>
+      <c r="C42" s="10">
+        <v>1001</v>
+      </c>
       <c r="D42" s="10">
         <v>499</v>
       </c>
       <c r="E42" s="10">
         <v>32</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="10">
         <v>17</v>
       </c>
-      <c r="I42">
-        <v>50</v>
-      </c>
-      <c r="J42">
-        <v>339</v>
-      </c>
-      <c r="K42">
+      <c r="I42" s="10">
+        <v>50</v>
+      </c>
+      <c r="J42" s="14">
+        <v>1078</v>
+      </c>
+      <c r="K42" s="10">
         <v>131</v>
       </c>
-      <c r="L42">
-        <v>20</v>
-      </c>
-      <c r="N42">
-        <v>10</v>
-      </c>
-      <c r="O42">
-        <v>40</v>
-      </c>
-      <c r="P42">
-        <v>96</v>
-      </c>
-      <c r="Q42">
+      <c r="L42" s="10">
+        <v>20</v>
+      </c>
+      <c r="N42" s="10">
+        <v>10</v>
+      </c>
+      <c r="O42" s="10">
+        <v>40</v>
+      </c>
+      <c r="P42" s="10">
+        <v>857</v>
+      </c>
+      <c r="Q42" s="10">
         <v>47</v>
       </c>
-      <c r="R42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="R42" s="10">
+        <v>20</v>
+      </c>
+      <c r="T42" s="10">
+        <v>10</v>
+      </c>
+      <c r="U42" s="10">
+        <v>40</v>
+      </c>
+      <c r="V42" s="14">
+        <v>1093</v>
+      </c>
+      <c r="W42" s="10">
+        <v>47</v>
+      </c>
+      <c r="X42" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="10">
         <v>26</v>
       </c>
       <c r="B43" s="10">
         <v>60</v>
       </c>
+      <c r="C43" s="10">
+        <v>1026</v>
+      </c>
       <c r="D43" s="10">
         <v>573</v>
       </c>
       <c r="E43" s="10">
         <v>25</v>
       </c>
-      <c r="H43">
-        <v>20</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="10">
+        <v>20</v>
+      </c>
+      <c r="I43" s="10">
         <v>51</v>
       </c>
-      <c r="J43">
-        <v>370</v>
-      </c>
-      <c r="K43">
+      <c r="J43" s="14">
+        <v>1102</v>
+      </c>
+      <c r="K43" s="10">
         <v>151</v>
       </c>
-      <c r="L43">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>20</v>
-      </c>
-      <c r="O43">
-        <v>40</v>
-      </c>
-      <c r="P43">
-        <v>88</v>
-      </c>
-      <c r="Q43">
+      <c r="L43" s="10">
+        <v>20</v>
+      </c>
+      <c r="N43" s="10">
+        <v>20</v>
+      </c>
+      <c r="O43" s="10">
+        <v>40</v>
+      </c>
+      <c r="P43" s="10">
+        <v>1063</v>
+      </c>
+      <c r="Q43" s="10">
         <v>48</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="10">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="T43" s="10">
+        <v>20</v>
+      </c>
+      <c r="U43" s="10">
+        <v>40</v>
+      </c>
+      <c r="V43" s="14">
+        <v>1093</v>
+      </c>
+      <c r="W43" s="10">
+        <v>48</v>
+      </c>
+      <c r="X43" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="10">
         <v>30</v>
       </c>
       <c r="B44" s="10">
         <v>78</v>
       </c>
+      <c r="C44" s="10">
+        <v>1024</v>
+      </c>
       <c r="D44" s="10">
         <v>1056</v>
       </c>
       <c r="E44" s="10">
         <v>30</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="10">
         <v>19</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="10">
         <v>58</v>
       </c>
-      <c r="J44">
-        <v>501</v>
-      </c>
-      <c r="K44">
+      <c r="J44" s="14">
+        <v>1006</v>
+      </c>
+      <c r="K44" s="10">
         <v>131</v>
       </c>
-      <c r="L44">
-        <v>10</v>
-      </c>
-      <c r="N44">
-        <v>20</v>
-      </c>
-      <c r="O44">
-        <v>40</v>
-      </c>
-      <c r="P44">
-        <v>91</v>
-      </c>
-      <c r="Q44">
-        <v>50</v>
-      </c>
-      <c r="R44">
+      <c r="L44" s="10">
+        <v>10</v>
+      </c>
+      <c r="N44" s="10">
+        <v>20</v>
+      </c>
+      <c r="O44" s="10">
+        <v>40</v>
+      </c>
+      <c r="P44" s="10">
+        <v>1069</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>50</v>
+      </c>
+      <c r="R44" s="10">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="T44" s="10">
+        <v>20</v>
+      </c>
+      <c r="U44" s="10">
+        <v>40</v>
+      </c>
+      <c r="V44" s="14">
+        <v>1097</v>
+      </c>
+      <c r="W44" s="10">
+        <v>50</v>
+      </c>
+      <c r="X44" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="10">
         <v>30</v>
       </c>
       <c r="B45" s="10">
         <v>63</v>
       </c>
+      <c r="C45" s="10">
+        <v>963</v>
+      </c>
       <c r="D45" s="10">
         <v>598</v>
       </c>
       <c r="E45" s="10">
         <v>32</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="10">
         <v>15</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="10">
         <v>47</v>
       </c>
-      <c r="J45">
-        <v>422</v>
-      </c>
-      <c r="K45">
+      <c r="J45" s="14">
+        <v>1075</v>
+      </c>
+      <c r="K45" s="10">
         <v>91</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="10">
         <v>24</v>
       </c>
-      <c r="N45">
-        <v>10</v>
-      </c>
-      <c r="O45">
+      <c r="N45" s="10">
+        <v>10</v>
+      </c>
+      <c r="O45" s="10">
         <v>55</v>
       </c>
-      <c r="P45">
-        <v>93</v>
-      </c>
-      <c r="Q45">
-        <v>50</v>
-      </c>
-      <c r="R45">
+      <c r="P45" s="10">
+        <v>1096</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>50</v>
+      </c>
+      <c r="R45" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="T45" s="10">
+        <v>10</v>
+      </c>
+      <c r="U45" s="10">
+        <v>55</v>
+      </c>
+      <c r="V45" s="14">
+        <v>1106</v>
+      </c>
+      <c r="W45" s="10">
+        <v>50</v>
+      </c>
+      <c r="X45" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="10">
         <v>35</v>
       </c>
       <c r="B46" s="10">
         <v>64</v>
       </c>
+      <c r="C46" s="10">
+        <v>990</v>
+      </c>
       <c r="D46" s="10">
         <v>482</v>
       </c>
       <c r="E46" s="10">
         <v>32</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="10">
         <v>15</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="10">
         <v>48</v>
       </c>
-      <c r="J46">
-        <v>317</v>
-      </c>
-      <c r="K46">
+      <c r="J46" s="14">
+        <v>1093</v>
+      </c>
+      <c r="K46" s="10">
         <v>159</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="10">
         <v>15</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="10">
         <v>24</v>
       </c>
-      <c r="O46">
-        <v>30</v>
-      </c>
-      <c r="P46">
-        <v>99</v>
-      </c>
-      <c r="Q46">
+      <c r="O46" s="10">
+        <v>30</v>
+      </c>
+      <c r="P46" s="10">
+        <v>1060</v>
+      </c>
+      <c r="Q46" s="10">
         <v>60</v>
       </c>
-      <c r="R46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="R46" s="10">
+        <v>20</v>
+      </c>
+      <c r="T46" s="10">
+        <v>24</v>
+      </c>
+      <c r="U46" s="10">
+        <v>30</v>
+      </c>
+      <c r="V46" s="14">
+        <v>1112</v>
+      </c>
+      <c r="W46" s="10">
+        <v>60</v>
+      </c>
+      <c r="X46" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="10">
         <v>23</v>
       </c>
       <c r="B47" s="10">
         <v>67</v>
       </c>
+      <c r="C47" s="10">
+        <v>921</v>
+      </c>
       <c r="D47" s="10">
         <v>373</v>
       </c>
       <c r="E47" s="10">
         <v>26</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="10">
         <v>19</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="10">
         <v>48</v>
       </c>
-      <c r="J47">
-        <v>124</v>
-      </c>
-      <c r="K47">
+      <c r="J47" s="14">
+        <v>1083</v>
+      </c>
+      <c r="K47" s="10">
         <v>56</v>
       </c>
-      <c r="L47">
-        <v>20</v>
-      </c>
-      <c r="N47">
+      <c r="L47" s="10">
+        <v>20</v>
+      </c>
+      <c r="N47" s="10">
         <v>16</v>
       </c>
-      <c r="O47">
-        <v>40</v>
-      </c>
-      <c r="P47">
-        <v>104</v>
-      </c>
-      <c r="Q47">
+      <c r="O47" s="10">
+        <v>40</v>
+      </c>
+      <c r="P47" s="10">
+        <v>1113</v>
+      </c>
+      <c r="Q47" s="10">
         <v>46</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="T47" s="10">
+        <v>16</v>
+      </c>
+      <c r="U47" s="10">
+        <v>40</v>
+      </c>
+      <c r="V47" s="14">
+        <v>785</v>
+      </c>
+      <c r="W47" s="10">
+        <v>46</v>
+      </c>
+      <c r="X47" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="10">
         <v>33</v>
       </c>
       <c r="B48" s="10">
         <v>60</v>
       </c>
+      <c r="C48" s="10">
+        <v>986</v>
+      </c>
       <c r="D48" s="10">
         <v>676</v>
       </c>
       <c r="E48" s="10">
         <v>30</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="10">
         <v>12</v>
       </c>
-      <c r="I48">
-        <v>50</v>
-      </c>
-      <c r="J48">
-        <v>460</v>
-      </c>
-      <c r="K48">
+      <c r="I48" s="10">
+        <v>50</v>
+      </c>
+      <c r="J48" s="14">
+        <v>985</v>
+      </c>
+      <c r="K48" s="10">
         <v>79</v>
       </c>
-      <c r="L48">
-        <v>20</v>
-      </c>
-      <c r="N48">
-        <v>20</v>
-      </c>
-      <c r="O48">
+      <c r="L48" s="10">
+        <v>20</v>
+      </c>
+      <c r="N48" s="10">
+        <v>20</v>
+      </c>
+      <c r="O48" s="10">
         <v>43</v>
       </c>
-      <c r="P48">
-        <v>98</v>
-      </c>
-      <c r="Q48">
+      <c r="P48" s="10">
+        <v>1059</v>
+      </c>
+      <c r="Q48" s="10">
         <v>44</v>
       </c>
-      <c r="R48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="R48" s="10">
+        <v>10</v>
+      </c>
+      <c r="T48" s="10">
+        <v>20</v>
+      </c>
+      <c r="U48" s="10">
+        <v>43</v>
+      </c>
+      <c r="V48" s="14">
+        <v>953</v>
+      </c>
+      <c r="W48" s="10">
+        <v>44</v>
+      </c>
+      <c r="X48" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="10">
         <v>26</v>
       </c>
       <c r="B49" s="10">
         <v>61</v>
       </c>
+      <c r="C49" s="10">
+        <v>848</v>
+      </c>
       <c r="D49" s="10">
         <v>738</v>
       </c>
       <c r="E49" s="10">
         <v>30</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="10">
         <v>17</v>
       </c>
-      <c r="I49">
-        <v>50</v>
-      </c>
-      <c r="J49">
-        <v>320</v>
-      </c>
-      <c r="K49">
+      <c r="I49" s="10">
+        <v>50</v>
+      </c>
+      <c r="J49" s="14">
+        <v>1045</v>
+      </c>
+      <c r="K49" s="10">
         <v>110</v>
       </c>
-      <c r="L49">
-        <v>20</v>
-      </c>
-      <c r="N49">
+      <c r="L49" s="10">
+        <v>20</v>
+      </c>
+      <c r="N49" s="10">
         <v>16</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="10">
         <v>39</v>
       </c>
-      <c r="P49">
-        <v>91</v>
-      </c>
-      <c r="Q49">
+      <c r="P49" s="10">
+        <v>937</v>
+      </c>
+      <c r="Q49" s="10">
         <v>60</v>
       </c>
-      <c r="R49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="R49" s="10">
+        <v>20</v>
+      </c>
+      <c r="T49" s="10">
+        <v>16</v>
+      </c>
+      <c r="U49" s="10">
+        <v>39</v>
+      </c>
+      <c r="V49" s="14">
+        <v>1086</v>
+      </c>
+      <c r="W49" s="10">
+        <v>60</v>
+      </c>
+      <c r="X49" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="10">
         <v>30</v>
       </c>
       <c r="B50" s="10">
         <v>49</v>
       </c>
+      <c r="C50" s="10">
+        <v>1024</v>
+      </c>
       <c r="D50" s="10">
         <v>1052</v>
       </c>
       <c r="E50" s="10">
         <v>30</v>
       </c>
-      <c r="H50">
-        <v>20</v>
-      </c>
-      <c r="I50">
+      <c r="H50" s="10">
+        <v>20</v>
+      </c>
+      <c r="I50" s="10">
         <v>57</v>
       </c>
-      <c r="J50">
-        <v>335</v>
-      </c>
-      <c r="K50">
+      <c r="J50" s="14">
+        <v>1037</v>
+      </c>
+      <c r="K50" s="10">
         <v>111</v>
       </c>
-      <c r="L50">
-        <v>10</v>
-      </c>
-      <c r="N50">
+      <c r="L50" s="10">
+        <v>10</v>
+      </c>
+      <c r="N50" s="10">
         <v>14</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="10">
         <v>27</v>
       </c>
-      <c r="P50">
-        <v>111</v>
-      </c>
-      <c r="Q50">
+      <c r="P50" s="10">
+        <v>722</v>
+      </c>
+      <c r="Q50" s="10">
         <v>43</v>
       </c>
-      <c r="R50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="R50" s="10">
+        <v>20</v>
+      </c>
+      <c r="T50" s="10">
+        <v>14</v>
+      </c>
+      <c r="U50" s="10">
+        <v>27</v>
+      </c>
+      <c r="V50" s="14">
+        <v>1024</v>
+      </c>
+      <c r="W50" s="10">
+        <v>43</v>
+      </c>
+      <c r="X50" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="10">
         <v>30</v>
       </c>
       <c r="B51" s="10">
         <v>77</v>
       </c>
+      <c r="C51" s="10">
+        <v>931</v>
+      </c>
       <c r="D51" s="10">
         <v>942</v>
       </c>
       <c r="E51" s="10">
         <v>30</v>
       </c>
-      <c r="H51">
-        <v>10</v>
-      </c>
-      <c r="I51">
+      <c r="H51" s="10">
+        <v>10</v>
+      </c>
+      <c r="I51" s="10">
         <v>53</v>
       </c>
-      <c r="J51">
-        <v>364</v>
-      </c>
-      <c r="K51">
+      <c r="J51" s="14">
+        <v>959</v>
+      </c>
+      <c r="K51" s="10">
         <v>131</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="10">
         <v>24</v>
       </c>
-      <c r="N51">
-        <v>10</v>
-      </c>
-      <c r="O51">
+      <c r="N51" s="10">
+        <v>10</v>
+      </c>
+      <c r="O51" s="10">
         <v>43</v>
       </c>
-      <c r="P51">
-        <v>92</v>
-      </c>
-      <c r="Q51">
+      <c r="P51" s="10">
+        <v>749</v>
+      </c>
+      <c r="Q51" s="10">
         <v>78</v>
       </c>
-      <c r="R51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="R51" s="10">
+        <v>10</v>
+      </c>
+      <c r="T51" s="10">
+        <v>10</v>
+      </c>
+      <c r="U51" s="10">
+        <v>43</v>
+      </c>
+      <c r="V51" s="14">
+        <v>1087</v>
+      </c>
+      <c r="W51" s="10">
+        <v>78</v>
+      </c>
+      <c r="X51" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="10">
         <v>30</v>
       </c>
       <c r="B52" s="10">
         <v>63</v>
       </c>
+      <c r="C52" s="10">
+        <v>794</v>
+      </c>
       <c r="D52" s="10">
         <v>322</v>
       </c>
       <c r="E52" s="10">
         <v>30</v>
       </c>
-      <c r="H52">
-        <v>20</v>
-      </c>
-      <c r="I52">
+      <c r="H52" s="10">
+        <v>20</v>
+      </c>
+      <c r="I52" s="10">
         <v>58</v>
       </c>
-      <c r="J52">
-        <v>398</v>
-      </c>
-      <c r="K52">
+      <c r="J52" s="14">
+        <v>1050</v>
+      </c>
+      <c r="K52" s="10">
         <v>100</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="10">
         <v>15</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="10">
         <v>26</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="10">
         <v>38</v>
       </c>
-      <c r="P52">
-        <v>106</v>
-      </c>
-      <c r="Q52">
+      <c r="P52" s="10">
+        <v>841</v>
+      </c>
+      <c r="Q52" s="10">
         <v>48</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="T52" s="10">
+        <v>26</v>
+      </c>
+      <c r="U52" s="10">
+        <v>38</v>
+      </c>
+      <c r="V52" s="14">
+        <v>1068</v>
+      </c>
+      <c r="W52" s="10">
+        <v>48</v>
+      </c>
+      <c r="X52" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="10">
         <v>30</v>
       </c>
       <c r="B53" s="10">
         <v>61</v>
       </c>
+      <c r="C53" s="10">
+        <v>888</v>
+      </c>
       <c r="D53" s="10">
         <v>544</v>
       </c>
       <c r="E53" s="10">
         <v>26</v>
       </c>
-      <c r="H53">
-        <v>20</v>
-      </c>
-      <c r="I53">
+      <c r="H53" s="10">
+        <v>20</v>
+      </c>
+      <c r="I53" s="10">
         <v>53</v>
       </c>
-      <c r="J53">
-        <v>392</v>
-      </c>
-      <c r="K53">
+      <c r="J53" s="14">
+        <v>770</v>
+      </c>
+      <c r="K53" s="10">
         <v>126</v>
       </c>
-      <c r="L53">
-        <v>20</v>
-      </c>
-      <c r="N53">
+      <c r="L53" s="10">
+        <v>20</v>
+      </c>
+      <c r="N53" s="10">
         <v>15</v>
       </c>
-      <c r="O53">
-        <v>30</v>
-      </c>
-      <c r="P53">
-        <v>96</v>
-      </c>
-      <c r="Q53">
-        <v>50</v>
-      </c>
-      <c r="R53">
+      <c r="O53" s="10">
+        <v>30</v>
+      </c>
+      <c r="P53" s="10">
+        <v>741</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>50</v>
+      </c>
+      <c r="R53" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="T53" s="10">
+        <v>15</v>
+      </c>
+      <c r="U53" s="10">
+        <v>30</v>
+      </c>
+      <c r="V53" s="14">
+        <v>1066</v>
+      </c>
+      <c r="W53" s="10">
+        <v>50</v>
+      </c>
+      <c r="X53" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="10">
         <v>30</v>
       </c>
       <c r="B54" s="10">
         <v>50</v>
+      </c>
+      <c r="C54" s="10">
+        <v>1022</v>
       </c>
       <c r="D54" s="10">
         <v>182</v>
@@ -3503,131 +4462,185 @@
       <c r="E54" s="10">
         <v>23</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="10">
         <v>23</v>
       </c>
-      <c r="I54">
-        <v>50</v>
-      </c>
-      <c r="J54">
-        <v>218</v>
-      </c>
-      <c r="K54">
+      <c r="I54" s="10">
+        <v>50</v>
+      </c>
+      <c r="J54" s="14">
+        <v>1028</v>
+      </c>
+      <c r="K54" s="10">
         <v>125</v>
       </c>
-      <c r="L54">
-        <v>20</v>
-      </c>
-      <c r="N54">
+      <c r="L54" s="10">
+        <v>20</v>
+      </c>
+      <c r="N54" s="10">
         <v>16</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="10">
         <v>43</v>
       </c>
-      <c r="P54">
-        <v>101</v>
-      </c>
-      <c r="Q54">
-        <v>50</v>
-      </c>
-      <c r="R54">
+      <c r="P54" s="10">
+        <v>946</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>50</v>
+      </c>
+      <c r="R54" s="10">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="T54" s="10">
+        <v>16</v>
+      </c>
+      <c r="U54" s="10">
+        <v>43</v>
+      </c>
+      <c r="V54" s="14">
+        <v>1083</v>
+      </c>
+      <c r="W54" s="10">
+        <v>50</v>
+      </c>
+      <c r="X54" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="10">
         <v>30</v>
       </c>
       <c r="B55" s="10">
         <v>60</v>
       </c>
+      <c r="C55" s="10">
+        <v>1008</v>
+      </c>
       <c r="D55" s="10">
         <v>427</v>
       </c>
       <c r="E55" s="10">
         <v>30</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="10">
         <v>16</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="10">
         <v>51</v>
       </c>
-      <c r="J55">
-        <v>434</v>
-      </c>
-      <c r="K55">
+      <c r="J55" s="14">
+        <v>1026</v>
+      </c>
+      <c r="K55" s="10">
         <v>130</v>
       </c>
-      <c r="L55">
-        <v>20</v>
-      </c>
-      <c r="N55">
+      <c r="L55" s="10">
+        <v>20</v>
+      </c>
+      <c r="N55" s="10">
         <v>16</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="10">
         <v>37</v>
       </c>
-      <c r="P55">
-        <v>92</v>
-      </c>
-      <c r="Q55">
+      <c r="P55" s="10">
+        <v>978</v>
+      </c>
+      <c r="Q55" s="10">
         <v>41</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="T55" s="10">
+        <v>16</v>
+      </c>
+      <c r="U55" s="10">
+        <v>37</v>
+      </c>
+      <c r="V55" s="14">
+        <v>1069</v>
+      </c>
+      <c r="W55" s="10">
+        <v>41</v>
+      </c>
+      <c r="X55" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="10">
         <v>30</v>
       </c>
       <c r="B56" s="10">
         <v>60</v>
       </c>
+      <c r="C56" s="10">
+        <v>960</v>
+      </c>
       <c r="D56" s="10">
         <v>920</v>
       </c>
       <c r="E56" s="10">
         <v>30</v>
       </c>
-      <c r="H56">
-        <v>20</v>
-      </c>
-      <c r="I56">
+      <c r="H56" s="10">
+        <v>20</v>
+      </c>
+      <c r="I56" s="10">
         <v>60</v>
       </c>
-      <c r="J56">
-        <v>362</v>
-      </c>
-      <c r="K56">
+      <c r="J56" s="14">
+        <v>1042</v>
+      </c>
+      <c r="K56" s="10">
         <v>393</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="10">
         <v>18</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="10">
         <v>17</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="10">
         <v>42</v>
       </c>
-      <c r="P56">
-        <v>101</v>
-      </c>
-      <c r="Q56">
+      <c r="P56" s="10">
+        <v>1063</v>
+      </c>
+      <c r="Q56" s="10">
         <v>49</v>
       </c>
-      <c r="R56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="R56" s="10">
+        <v>10</v>
+      </c>
+      <c r="T56" s="10">
+        <v>17</v>
+      </c>
+      <c r="U56" s="10">
+        <v>42</v>
+      </c>
+      <c r="V56" s="14">
+        <v>1081</v>
+      </c>
+      <c r="W56" s="10">
+        <v>49</v>
+      </c>
+      <c r="X56" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="10">
         <v>30</v>
       </c>
       <c r="B57" s="10">
         <v>50</v>
+      </c>
+      <c r="C57" s="10">
+        <v>958</v>
       </c>
       <c r="D57" s="10">
         <v>266</v>
@@ -3635,2036 +4648,2851 @@
       <c r="E57" s="10">
         <v>30</v>
       </c>
-      <c r="H57">
-        <v>20</v>
-      </c>
-      <c r="I57">
+      <c r="H57" s="10">
+        <v>20</v>
+      </c>
+      <c r="I57" s="10">
         <v>62</v>
       </c>
-      <c r="J57">
-        <v>426</v>
-      </c>
-      <c r="K57">
+      <c r="J57" s="14">
+        <v>776</v>
+      </c>
+      <c r="K57" s="10">
         <v>141</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="10">
         <v>16</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="10">
         <v>14</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="10">
         <v>38</v>
       </c>
-      <c r="P57">
-        <v>82</v>
-      </c>
-      <c r="Q57">
-        <v>40</v>
-      </c>
-      <c r="R57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="P57" s="10">
+        <v>1073</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>40</v>
+      </c>
+      <c r="R57" s="10">
+        <v>20</v>
+      </c>
+      <c r="T57" s="10">
+        <v>14</v>
+      </c>
+      <c r="U57" s="10">
+        <v>38</v>
+      </c>
+      <c r="V57" s="14">
+        <v>994</v>
+      </c>
+      <c r="W57" s="10">
+        <v>40</v>
+      </c>
+      <c r="X57" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="10">
         <v>20</v>
       </c>
       <c r="B58" s="10">
         <v>61</v>
       </c>
+      <c r="C58" s="10">
+        <v>883</v>
+      </c>
       <c r="D58" s="10">
         <v>661</v>
       </c>
       <c r="E58" s="10">
         <v>31</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="10">
         <v>11</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="10">
         <v>49</v>
       </c>
-      <c r="J58">
-        <v>334</v>
-      </c>
-      <c r="K58">
+      <c r="J58" s="14">
+        <v>1033</v>
+      </c>
+      <c r="K58" s="10">
         <v>151</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="10">
         <v>48</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="10">
         <v>35</v>
       </c>
-      <c r="O58">
-        <v>30</v>
-      </c>
-      <c r="P58">
-        <v>137</v>
-      </c>
-      <c r="Q58">
+      <c r="O58" s="10">
+        <v>30</v>
+      </c>
+      <c r="P58" s="10">
+        <v>1076</v>
+      </c>
+      <c r="Q58" s="10">
         <v>46</v>
       </c>
-      <c r="R58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="R58" s="10">
+        <v>20</v>
+      </c>
+      <c r="T58" s="10">
+        <v>35</v>
+      </c>
+      <c r="U58" s="10">
+        <v>30</v>
+      </c>
+      <c r="V58" s="14">
+        <v>895</v>
+      </c>
+      <c r="W58" s="10">
+        <v>46</v>
+      </c>
+      <c r="X58" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="10">
         <v>35</v>
       </c>
       <c r="B59" s="10">
         <v>71</v>
       </c>
+      <c r="C59" s="10">
+        <v>979</v>
+      </c>
       <c r="D59" s="10">
         <v>312</v>
       </c>
       <c r="E59" s="10">
         <v>28</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="10">
         <v>29</v>
       </c>
-      <c r="I59">
-        <v>50</v>
-      </c>
-      <c r="J59">
-        <v>384</v>
-      </c>
-      <c r="K59">
+      <c r="I59" s="10">
+        <v>50</v>
+      </c>
+      <c r="J59" s="14">
+        <v>974</v>
+      </c>
+      <c r="K59" s="10">
         <v>161</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="10">
         <v>18</v>
       </c>
-      <c r="N59">
-        <v>20</v>
-      </c>
-      <c r="O59">
+      <c r="N59" s="10">
+        <v>20</v>
+      </c>
+      <c r="O59" s="10">
         <v>42</v>
       </c>
-      <c r="P59">
-        <v>91</v>
-      </c>
-      <c r="Q59">
+      <c r="P59" s="10">
+        <v>1060</v>
+      </c>
+      <c r="Q59" s="10">
         <v>47</v>
       </c>
-      <c r="R59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="R59" s="10">
+        <v>10</v>
+      </c>
+      <c r="T59" s="10">
+        <v>20</v>
+      </c>
+      <c r="U59" s="10">
+        <v>42</v>
+      </c>
+      <c r="V59" s="14">
+        <v>1086</v>
+      </c>
+      <c r="W59" s="10">
+        <v>47</v>
+      </c>
+      <c r="X59" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="10">
         <v>26</v>
       </c>
       <c r="B60" s="10">
         <v>40</v>
       </c>
+      <c r="C60" s="10">
+        <v>977</v>
+      </c>
       <c r="D60" s="10">
         <v>614</v>
       </c>
       <c r="E60" s="10">
         <v>30</v>
       </c>
-      <c r="H60">
-        <v>20</v>
-      </c>
-      <c r="I60">
+      <c r="H60" s="10">
+        <v>20</v>
+      </c>
+      <c r="I60" s="10">
         <v>60</v>
       </c>
-      <c r="J60">
-        <v>305</v>
-      </c>
-      <c r="K60">
+      <c r="J60" s="14">
+        <v>988</v>
+      </c>
+      <c r="K60" s="10">
         <v>120</v>
       </c>
-      <c r="L60">
-        <v>20</v>
-      </c>
-      <c r="N60">
-        <v>20</v>
-      </c>
-      <c r="O60">
+      <c r="L60" s="10">
+        <v>20</v>
+      </c>
+      <c r="N60" s="10">
+        <v>20</v>
+      </c>
+      <c r="O60" s="10">
         <v>38</v>
       </c>
-      <c r="P60">
-        <v>98</v>
-      </c>
-      <c r="Q60">
+      <c r="P60" s="10">
+        <v>1061</v>
+      </c>
+      <c r="Q60" s="10">
         <v>57</v>
       </c>
-      <c r="R60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="R60" s="10">
+        <v>20</v>
+      </c>
+      <c r="T60" s="10">
+        <v>20</v>
+      </c>
+      <c r="U60" s="10">
+        <v>38</v>
+      </c>
+      <c r="V60" s="14">
+        <v>1064</v>
+      </c>
+      <c r="W60" s="10">
+        <v>57</v>
+      </c>
+      <c r="X60" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="10">
         <v>32</v>
       </c>
       <c r="B61" s="10">
         <v>71</v>
       </c>
+      <c r="C61" s="10">
+        <v>887</v>
+      </c>
       <c r="D61" s="10">
         <v>439</v>
       </c>
       <c r="E61" s="10">
         <v>30</v>
       </c>
-      <c r="H61">
-        <v>20</v>
-      </c>
-      <c r="I61">
+      <c r="H61" s="10">
+        <v>20</v>
+      </c>
+      <c r="I61" s="10">
         <v>61</v>
       </c>
-      <c r="J61">
-        <v>436</v>
-      </c>
-      <c r="K61">
+      <c r="J61" s="14">
+        <v>1034</v>
+      </c>
+      <c r="K61" s="10">
         <v>138</v>
       </c>
-      <c r="L61">
-        <v>20</v>
-      </c>
-      <c r="N61">
-        <v>10</v>
-      </c>
-      <c r="O61">
-        <v>40</v>
-      </c>
-      <c r="P61">
-        <v>101</v>
-      </c>
-      <c r="Q61">
-        <v>50</v>
-      </c>
-      <c r="R61">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="L61" s="10">
+        <v>20</v>
+      </c>
+      <c r="N61" s="10">
+        <v>10</v>
+      </c>
+      <c r="O61" s="10">
+        <v>40</v>
+      </c>
+      <c r="P61" s="10">
+        <v>1080</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>50</v>
+      </c>
+      <c r="R61" s="10">
+        <v>20</v>
+      </c>
+      <c r="T61" s="10">
+        <v>10</v>
+      </c>
+      <c r="U61" s="10">
+        <v>40</v>
+      </c>
+      <c r="V61" s="14">
+        <v>1093</v>
+      </c>
+      <c r="W61" s="10">
+        <v>50</v>
+      </c>
+      <c r="X61" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="10">
         <v>27</v>
       </c>
       <c r="B62" s="10">
         <v>60</v>
       </c>
+      <c r="C62" s="10">
+        <v>1023</v>
+      </c>
       <c r="D62" s="10">
         <v>720</v>
       </c>
       <c r="E62" s="10">
         <v>28</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="10">
         <v>21</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="10">
         <v>54</v>
       </c>
-      <c r="J62">
-        <v>394</v>
-      </c>
-      <c r="K62">
+      <c r="J62" s="14">
+        <v>839</v>
+      </c>
+      <c r="K62" s="10">
         <v>100</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="10">
         <v>11</v>
       </c>
-      <c r="N62">
-        <v>20</v>
-      </c>
-      <c r="O62">
+      <c r="N62" s="10">
+        <v>20</v>
+      </c>
+      <c r="O62" s="10">
         <v>39</v>
       </c>
-      <c r="P62">
-        <v>98</v>
-      </c>
-      <c r="Q62">
-        <v>40</v>
-      </c>
-      <c r="R62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="P62" s="10">
+        <v>1026</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>40</v>
+      </c>
+      <c r="R62" s="10">
+        <v>10</v>
+      </c>
+      <c r="T62" s="10">
+        <v>20</v>
+      </c>
+      <c r="U62" s="10">
+        <v>39</v>
+      </c>
+      <c r="V62" s="14">
+        <v>1085</v>
+      </c>
+      <c r="W62" s="10">
+        <v>40</v>
+      </c>
+      <c r="X62" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="10">
         <v>30</v>
       </c>
       <c r="B63" s="10">
         <v>62</v>
       </c>
+      <c r="C63" s="10">
+        <v>890</v>
+      </c>
       <c r="D63" s="10">
         <v>411</v>
       </c>
       <c r="E63" s="10">
         <v>22</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="10">
         <v>16</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="10">
         <v>54</v>
       </c>
-      <c r="J63">
-        <v>449</v>
-      </c>
-      <c r="K63">
+      <c r="J63" s="14">
+        <v>765</v>
+      </c>
+      <c r="K63" s="10">
         <v>81</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="10">
         <v>24</v>
       </c>
-      <c r="N63">
-        <v>10</v>
-      </c>
-      <c r="O63">
+      <c r="N63" s="10">
+        <v>10</v>
+      </c>
+      <c r="O63" s="10">
         <v>31</v>
       </c>
-      <c r="P63">
-        <v>97</v>
-      </c>
-      <c r="Q63">
-        <v>50</v>
-      </c>
-      <c r="R63">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="P63" s="10">
+        <v>1007</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>50</v>
+      </c>
+      <c r="R63" s="10">
+        <v>20</v>
+      </c>
+      <c r="T63" s="10">
+        <v>10</v>
+      </c>
+      <c r="U63" s="10">
+        <v>31</v>
+      </c>
+      <c r="V63" s="14">
+        <v>1103</v>
+      </c>
+      <c r="W63" s="10">
+        <v>50</v>
+      </c>
+      <c r="X63" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="10">
         <v>30</v>
       </c>
       <c r="B64" s="10">
         <v>68</v>
       </c>
+      <c r="C64" s="10">
+        <v>1004</v>
+      </c>
       <c r="D64" s="10">
         <v>528</v>
       </c>
       <c r="E64" s="10">
         <v>30</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="10">
         <v>15</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="10">
         <v>41</v>
       </c>
-      <c r="J64">
-        <v>457</v>
-      </c>
-      <c r="K64">
+      <c r="J64" s="14">
+        <v>921</v>
+      </c>
+      <c r="K64" s="10">
         <v>172</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="10">
         <v>16</v>
       </c>
-      <c r="N64">
-        <v>20</v>
-      </c>
-      <c r="O64">
-        <v>40</v>
-      </c>
-      <c r="P64">
-        <v>102</v>
-      </c>
-      <c r="Q64">
+      <c r="N64" s="10">
+        <v>20</v>
+      </c>
+      <c r="O64" s="10">
+        <v>40</v>
+      </c>
+      <c r="P64" s="10">
+        <v>975</v>
+      </c>
+      <c r="Q64" s="10">
         <v>41</v>
       </c>
-      <c r="R64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="R64" s="10">
+        <v>20</v>
+      </c>
+      <c r="T64" s="10">
+        <v>20</v>
+      </c>
+      <c r="U64" s="10">
+        <v>40</v>
+      </c>
+      <c r="V64" s="14">
+        <v>957</v>
+      </c>
+      <c r="W64" s="10">
+        <v>41</v>
+      </c>
+      <c r="X64" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="10">
         <v>30</v>
       </c>
       <c r="B65" s="10">
         <v>60</v>
       </c>
+      <c r="C65" s="10">
+        <v>1017</v>
+      </c>
       <c r="D65" s="10">
         <v>818</v>
       </c>
       <c r="E65" s="10">
         <v>30</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="10">
         <v>17</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="10">
         <v>49</v>
       </c>
-      <c r="J65">
-        <v>373</v>
-      </c>
-      <c r="K65">
+      <c r="J65" s="14">
+        <v>971</v>
+      </c>
+      <c r="K65" s="10">
         <v>95</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="10">
         <v>18</v>
       </c>
-      <c r="N65">
-        <v>10</v>
-      </c>
-      <c r="O65">
-        <v>40</v>
-      </c>
-      <c r="P65">
-        <v>91</v>
-      </c>
-      <c r="Q65">
-        <v>50</v>
-      </c>
-      <c r="R65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="N65" s="10">
+        <v>10</v>
+      </c>
+      <c r="O65" s="10">
+        <v>40</v>
+      </c>
+      <c r="P65" s="10">
+        <v>1005</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>50</v>
+      </c>
+      <c r="R65" s="10">
+        <v>10</v>
+      </c>
+      <c r="T65" s="10">
+        <v>10</v>
+      </c>
+      <c r="U65" s="10">
+        <v>40</v>
+      </c>
+      <c r="V65" s="14">
+        <v>723</v>
+      </c>
+      <c r="W65" s="10">
+        <v>50</v>
+      </c>
+      <c r="X65" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="10">
         <v>33</v>
       </c>
       <c r="B66" s="10">
         <v>62</v>
       </c>
+      <c r="C66" s="10">
+        <v>1015</v>
+      </c>
       <c r="D66" s="10">
         <v>243</v>
       </c>
       <c r="E66" s="10">
         <v>30</v>
       </c>
-      <c r="H66">
-        <v>20</v>
-      </c>
-      <c r="I66">
-        <v>50</v>
-      </c>
-      <c r="J66">
-        <v>439</v>
-      </c>
-      <c r="K66">
+      <c r="H66" s="10">
+        <v>20</v>
+      </c>
+      <c r="I66" s="10">
+        <v>50</v>
+      </c>
+      <c r="J66" s="14">
+        <v>1056</v>
+      </c>
+      <c r="K66" s="10">
         <v>158</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="10">
         <v>13</v>
       </c>
-      <c r="N66">
-        <v>20</v>
-      </c>
-      <c r="O66">
-        <v>30</v>
-      </c>
-      <c r="P66">
-        <v>72</v>
-      </c>
-      <c r="Q66">
+      <c r="N66" s="10">
+        <v>20</v>
+      </c>
+      <c r="O66" s="10">
+        <v>30</v>
+      </c>
+      <c r="P66" s="10">
+        <v>1058</v>
+      </c>
+      <c r="Q66" s="10">
         <v>43</v>
       </c>
-      <c r="R66">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="R66" s="10">
+        <v>20</v>
+      </c>
+      <c r="T66" s="10">
+        <v>20</v>
+      </c>
+      <c r="U66" s="10">
+        <v>30</v>
+      </c>
+      <c r="V66" s="14">
+        <v>741</v>
+      </c>
+      <c r="W66" s="10">
+        <v>43</v>
+      </c>
+      <c r="X66" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="10">
         <v>27</v>
       </c>
       <c r="B67" s="10">
         <v>64</v>
       </c>
+      <c r="C67" s="10">
+        <v>1001</v>
+      </c>
       <c r="D67" s="10">
         <v>692</v>
       </c>
       <c r="E67" s="10">
         <v>31</v>
       </c>
-      <c r="H67">
-        <v>10</v>
-      </c>
-      <c r="I67">
-        <v>50</v>
-      </c>
-      <c r="J67">
-        <v>363</v>
-      </c>
-      <c r="K67">
+      <c r="H67" s="10">
+        <v>10</v>
+      </c>
+      <c r="I67" s="10">
+        <v>50</v>
+      </c>
+      <c r="J67" s="14">
+        <v>1032</v>
+      </c>
+      <c r="K67" s="10">
         <v>143</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="10">
         <v>17</v>
       </c>
-      <c r="N67">
-        <v>20</v>
-      </c>
-      <c r="O67">
-        <v>40</v>
-      </c>
-      <c r="P67">
-        <v>89</v>
-      </c>
-      <c r="Q67">
+      <c r="N67" s="10">
+        <v>20</v>
+      </c>
+      <c r="O67" s="10">
+        <v>40</v>
+      </c>
+      <c r="P67" s="10">
+        <v>958</v>
+      </c>
+      <c r="Q67" s="10">
         <v>47</v>
       </c>
-      <c r="R67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="R67" s="10">
+        <v>20</v>
+      </c>
+      <c r="T67" s="10">
+        <v>20</v>
+      </c>
+      <c r="U67" s="10">
+        <v>40</v>
+      </c>
+      <c r="V67" s="14">
+        <v>874</v>
+      </c>
+      <c r="W67" s="10">
+        <v>47</v>
+      </c>
+      <c r="X67" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="10">
         <v>30</v>
       </c>
       <c r="B68" s="10">
         <v>55</v>
       </c>
+      <c r="C68" s="10">
+        <v>928</v>
+      </c>
       <c r="D68" s="10">
         <v>542</v>
       </c>
       <c r="E68" s="10">
         <v>31</v>
       </c>
-      <c r="H68">
-        <v>20</v>
-      </c>
-      <c r="I68">
+      <c r="H68" s="10">
+        <v>20</v>
+      </c>
+      <c r="I68" s="10">
         <v>49</v>
       </c>
-      <c r="J68">
-        <v>356</v>
-      </c>
-      <c r="K68">
+      <c r="J68" s="14">
+        <v>991</v>
+      </c>
+      <c r="K68" s="10">
         <v>180</v>
       </c>
-      <c r="L68">
-        <v>20</v>
-      </c>
-      <c r="N68">
-        <v>10</v>
-      </c>
-      <c r="O68">
-        <v>40</v>
-      </c>
-      <c r="P68">
-        <v>81</v>
-      </c>
-      <c r="Q68">
+      <c r="L68" s="10">
+        <v>20</v>
+      </c>
+      <c r="N68" s="10">
+        <v>10</v>
+      </c>
+      <c r="O68" s="10">
+        <v>40</v>
+      </c>
+      <c r="P68" s="10">
+        <v>1015</v>
+      </c>
+      <c r="Q68" s="10">
         <v>49</v>
       </c>
-      <c r="R68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="R68" s="10">
+        <v>10</v>
+      </c>
+      <c r="T68" s="10">
+        <v>10</v>
+      </c>
+      <c r="U68" s="10">
+        <v>40</v>
+      </c>
+      <c r="V68" s="14">
+        <v>1068</v>
+      </c>
+      <c r="W68" s="10">
+        <v>49</v>
+      </c>
+      <c r="X68" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="10">
         <v>22</v>
       </c>
       <c r="B69" s="10">
         <v>61</v>
       </c>
+      <c r="C69" s="10">
+        <v>1007</v>
+      </c>
       <c r="D69" s="10">
         <v>815</v>
       </c>
       <c r="E69" s="10">
         <v>32</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="10">
         <v>21</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="10">
         <v>52</v>
       </c>
-      <c r="J69">
-        <v>353</v>
-      </c>
-      <c r="K69">
+      <c r="J69" s="14">
+        <v>969</v>
+      </c>
+      <c r="K69" s="10">
         <v>118</v>
       </c>
-      <c r="L69">
-        <v>20</v>
-      </c>
-      <c r="N69">
-        <v>20</v>
-      </c>
-      <c r="O69">
-        <v>40</v>
-      </c>
-      <c r="P69">
-        <v>100</v>
-      </c>
-      <c r="Q69">
-        <v>40</v>
-      </c>
-      <c r="R69">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="L69" s="10">
+        <v>20</v>
+      </c>
+      <c r="N69" s="10">
+        <v>20</v>
+      </c>
+      <c r="O69" s="10">
+        <v>40</v>
+      </c>
+      <c r="P69" s="10">
+        <v>1010</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>40</v>
+      </c>
+      <c r="R69" s="10">
+        <v>20</v>
+      </c>
+      <c r="T69" s="10">
+        <v>20</v>
+      </c>
+      <c r="U69" s="10">
+        <v>40</v>
+      </c>
+      <c r="V69" s="14">
+        <v>1057</v>
+      </c>
+      <c r="W69" s="10">
+        <v>40</v>
+      </c>
+      <c r="X69" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="10">
         <v>38</v>
       </c>
       <c r="B70" s="10">
         <v>71</v>
       </c>
+      <c r="C70" s="10">
+        <v>883</v>
+      </c>
       <c r="D70" s="10">
         <v>673</v>
       </c>
       <c r="E70" s="10">
         <v>28</v>
       </c>
-      <c r="H70">
-        <v>20</v>
-      </c>
-      <c r="I70">
-        <v>50</v>
-      </c>
-      <c r="J70">
-        <v>329</v>
-      </c>
-      <c r="K70">
+      <c r="H70" s="10">
+        <v>20</v>
+      </c>
+      <c r="I70" s="10">
+        <v>50</v>
+      </c>
+      <c r="J70" s="14">
+        <v>770</v>
+      </c>
+      <c r="K70" s="10">
         <v>161</v>
       </c>
-      <c r="L70">
-        <v>20</v>
-      </c>
-      <c r="N70">
-        <v>10</v>
-      </c>
-      <c r="O70">
+      <c r="L70" s="10">
+        <v>20</v>
+      </c>
+      <c r="N70" s="10">
+        <v>10</v>
+      </c>
+      <c r="O70" s="10">
         <v>37</v>
       </c>
-      <c r="P70">
-        <v>93</v>
-      </c>
-      <c r="Q70">
-        <v>50</v>
-      </c>
-      <c r="R70">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="P70" s="10">
+        <v>1056</v>
+      </c>
+      <c r="Q70" s="10">
+        <v>50</v>
+      </c>
+      <c r="R70" s="10">
+        <v>20</v>
+      </c>
+      <c r="T70" s="10">
+        <v>10</v>
+      </c>
+      <c r="U70" s="10">
+        <v>37</v>
+      </c>
+      <c r="V70" s="14">
+        <v>868</v>
+      </c>
+      <c r="W70" s="10">
+        <v>50</v>
+      </c>
+      <c r="X70" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="10">
         <v>30</v>
       </c>
       <c r="B71" s="10">
         <v>61</v>
       </c>
+      <c r="C71" s="10">
+        <v>918</v>
+      </c>
       <c r="D71" s="10">
         <v>301</v>
       </c>
       <c r="E71" s="10">
         <v>28</v>
       </c>
-      <c r="H71">
-        <v>20</v>
-      </c>
-      <c r="I71">
+      <c r="H71" s="10">
+        <v>20</v>
+      </c>
+      <c r="I71" s="10">
         <v>46</v>
       </c>
-      <c r="J71">
-        <v>363</v>
-      </c>
-      <c r="K71">
+      <c r="J71" s="14">
+        <v>784</v>
+      </c>
+      <c r="K71" s="10">
         <v>162</v>
       </c>
-      <c r="L71">
-        <v>10</v>
-      </c>
-      <c r="N71">
-        <v>20</v>
-      </c>
-      <c r="O71">
+      <c r="L71" s="10">
+        <v>10</v>
+      </c>
+      <c r="N71" s="10">
+        <v>20</v>
+      </c>
+      <c r="O71" s="10">
         <v>33</v>
       </c>
-      <c r="P71">
-        <v>99</v>
-      </c>
-      <c r="Q71">
+      <c r="P71" s="10">
+        <v>1073</v>
+      </c>
+      <c r="Q71" s="10">
         <v>42</v>
       </c>
-      <c r="R71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="R71" s="10">
+        <v>10</v>
+      </c>
+      <c r="T71" s="10">
+        <v>20</v>
+      </c>
+      <c r="U71" s="10">
+        <v>33</v>
+      </c>
+      <c r="V71" s="14">
+        <v>764</v>
+      </c>
+      <c r="W71" s="10">
+        <v>42</v>
+      </c>
+      <c r="X71" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="10">
         <v>26</v>
       </c>
       <c r="B72" s="10">
         <v>60</v>
       </c>
+      <c r="C72" s="10">
+        <v>1021</v>
+      </c>
       <c r="D72" s="10">
         <v>547</v>
       </c>
       <c r="E72" s="10">
         <v>30</v>
       </c>
-      <c r="H72">
-        <v>20</v>
-      </c>
-      <c r="I72">
+      <c r="H72" s="10">
+        <v>20</v>
+      </c>
+      <c r="I72" s="10">
         <v>55</v>
       </c>
-      <c r="J72">
-        <v>446</v>
-      </c>
-      <c r="K72">
+      <c r="J72" s="14">
+        <v>986</v>
+      </c>
+      <c r="K72" s="10">
         <v>111</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="10">
         <v>27</v>
       </c>
-      <c r="N72">
-        <v>20</v>
-      </c>
-      <c r="O72">
-        <v>30</v>
-      </c>
-      <c r="P72">
-        <v>102</v>
-      </c>
-      <c r="Q72">
+      <c r="N72" s="10">
+        <v>20</v>
+      </c>
+      <c r="O72" s="10">
+        <v>30</v>
+      </c>
+      <c r="P72" s="10">
+        <v>1073</v>
+      </c>
+      <c r="Q72" s="10">
         <v>47</v>
       </c>
-      <c r="R72">
+      <c r="R72" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="T72" s="10">
+        <v>20</v>
+      </c>
+      <c r="U72" s="10">
+        <v>30</v>
+      </c>
+      <c r="V72" s="14">
+        <v>1076</v>
+      </c>
+      <c r="W72" s="10">
+        <v>47</v>
+      </c>
+      <c r="X72" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="10">
         <v>24</v>
       </c>
       <c r="B73" s="10">
         <v>60</v>
       </c>
+      <c r="C73" s="10">
+        <v>1038</v>
+      </c>
       <c r="D73" s="10">
         <v>618</v>
       </c>
       <c r="E73" s="10">
         <v>30</v>
       </c>
-      <c r="H73">
-        <v>20</v>
-      </c>
-      <c r="I73">
-        <v>50</v>
-      </c>
-      <c r="J73">
-        <v>334</v>
-      </c>
-      <c r="K73">
+      <c r="H73" s="10">
+        <v>20</v>
+      </c>
+      <c r="I73" s="10">
+        <v>50</v>
+      </c>
+      <c r="J73" s="14">
+        <v>1072</v>
+      </c>
+      <c r="K73" s="10">
         <v>141</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="10">
         <v>14</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="10">
         <v>15</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="10">
         <v>47</v>
       </c>
-      <c r="P73">
-        <v>92</v>
-      </c>
-      <c r="Q73">
+      <c r="P73" s="10">
+        <v>1013</v>
+      </c>
+      <c r="Q73" s="10">
         <v>51</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="T73" s="10">
+        <v>15</v>
+      </c>
+      <c r="U73" s="10">
+        <v>47</v>
+      </c>
+      <c r="V73" s="14">
+        <v>1075</v>
+      </c>
+      <c r="W73" s="10">
+        <v>51</v>
+      </c>
+      <c r="X73" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="10">
         <v>32</v>
       </c>
       <c r="B74" s="10">
         <v>50</v>
       </c>
+      <c r="C74" s="10">
+        <v>1019</v>
+      </c>
       <c r="D74" s="10">
         <v>628</v>
       </c>
       <c r="E74" s="10">
         <v>30</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="10">
         <v>15</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="10">
         <v>51</v>
       </c>
-      <c r="J74">
-        <v>334</v>
-      </c>
-      <c r="K74">
+      <c r="J74" s="14">
+        <v>897</v>
+      </c>
+      <c r="K74" s="10">
         <v>101</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="10">
         <v>21</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="10">
         <v>15</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="10">
         <v>36</v>
       </c>
-      <c r="P74">
-        <v>78</v>
-      </c>
-      <c r="Q74">
-        <v>50</v>
-      </c>
-      <c r="R74">
+      <c r="P74" s="10">
+        <v>996</v>
+      </c>
+      <c r="Q74" s="10">
+        <v>50</v>
+      </c>
+      <c r="R74" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="T74" s="10">
+        <v>15</v>
+      </c>
+      <c r="U74" s="10">
+        <v>36</v>
+      </c>
+      <c r="V74" s="14">
+        <v>1099</v>
+      </c>
+      <c r="W74" s="10">
+        <v>50</v>
+      </c>
+      <c r="X74" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" s="10">
         <v>24</v>
       </c>
       <c r="B75" s="10">
         <v>70</v>
       </c>
+      <c r="C75" s="10">
+        <v>942</v>
+      </c>
       <c r="D75" s="10">
         <v>557</v>
       </c>
       <c r="E75" s="10">
         <v>28</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="10">
         <v>16</v>
       </c>
-      <c r="I75">
-        <v>40</v>
-      </c>
-      <c r="J75">
-        <v>427</v>
-      </c>
-      <c r="K75">
+      <c r="I75" s="10">
+        <v>40</v>
+      </c>
+      <c r="J75" s="14">
+        <v>1056</v>
+      </c>
+      <c r="K75" s="10">
         <v>76</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="10">
         <v>18</v>
       </c>
-      <c r="N75">
-        <v>10</v>
-      </c>
-      <c r="O75">
+      <c r="N75" s="10">
+        <v>10</v>
+      </c>
+      <c r="O75" s="10">
         <v>37</v>
       </c>
-      <c r="P75">
-        <v>97</v>
-      </c>
-      <c r="Q75">
+      <c r="P75" s="10">
+        <v>1083</v>
+      </c>
+      <c r="Q75" s="10">
         <v>56</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="T75" s="10">
+        <v>10</v>
+      </c>
+      <c r="U75" s="10">
+        <v>37</v>
+      </c>
+      <c r="V75" s="14">
+        <v>1089</v>
+      </c>
+      <c r="W75" s="10">
+        <v>56</v>
+      </c>
+      <c r="X75" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" s="10">
         <v>24</v>
       </c>
       <c r="B76" s="10">
         <v>70</v>
       </c>
+      <c r="C76" s="10">
+        <v>1017</v>
+      </c>
       <c r="D76" s="10">
         <v>414</v>
       </c>
       <c r="E76" s="10">
         <v>21</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="10">
         <v>19</v>
       </c>
-      <c r="I76">
-        <v>50</v>
-      </c>
-      <c r="J76">
-        <v>377</v>
-      </c>
-      <c r="K76">
+      <c r="I76" s="10">
+        <v>50</v>
+      </c>
+      <c r="J76" s="14">
+        <v>1075</v>
+      </c>
+      <c r="K76" s="10">
         <v>135</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="10">
         <v>13</v>
       </c>
-      <c r="N76">
-        <v>20</v>
-      </c>
-      <c r="O76">
+      <c r="N76" s="10">
+        <v>20</v>
+      </c>
+      <c r="O76" s="10">
         <v>41</v>
       </c>
-      <c r="P76">
-        <v>87</v>
-      </c>
-      <c r="Q76">
+      <c r="P76" s="10">
+        <v>1117</v>
+      </c>
+      <c r="Q76" s="10">
         <v>44</v>
       </c>
-      <c r="R76">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="R76" s="10">
+        <v>20</v>
+      </c>
+      <c r="T76" s="10">
+        <v>20</v>
+      </c>
+      <c r="U76" s="10">
+        <v>41</v>
+      </c>
+      <c r="V76" s="14">
+        <v>1092</v>
+      </c>
+      <c r="W76" s="10">
+        <v>44</v>
+      </c>
+      <c r="X76" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" s="10">
         <v>30</v>
       </c>
       <c r="B77" s="10">
         <v>62</v>
       </c>
+      <c r="C77" s="10">
+        <v>1018</v>
+      </c>
       <c r="D77" s="10">
         <v>151</v>
       </c>
       <c r="E77" s="10">
         <v>30</v>
       </c>
-      <c r="H77">
-        <v>20</v>
-      </c>
-      <c r="I77">
-        <v>50</v>
-      </c>
-      <c r="J77">
-        <v>354</v>
-      </c>
-      <c r="K77">
+      <c r="H77" s="10">
+        <v>20</v>
+      </c>
+      <c r="I77" s="10">
+        <v>50</v>
+      </c>
+      <c r="J77" s="14">
+        <v>838</v>
+      </c>
+      <c r="K77" s="10">
         <v>161</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="10">
         <v>16</v>
       </c>
-      <c r="N77">
-        <v>10</v>
-      </c>
-      <c r="O77">
+      <c r="N77" s="10">
+        <v>10</v>
+      </c>
+      <c r="O77" s="10">
         <v>39</v>
       </c>
-      <c r="P77">
-        <v>89</v>
-      </c>
-      <c r="Q77">
-        <v>40</v>
-      </c>
-      <c r="R77">
+      <c r="P77" s="10">
+        <v>1091</v>
+      </c>
+      <c r="Q77" s="10">
+        <v>40</v>
+      </c>
+      <c r="R77" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="T77" s="10">
+        <v>10</v>
+      </c>
+      <c r="U77" s="10">
+        <v>39</v>
+      </c>
+      <c r="V77" s="14">
+        <v>1091</v>
+      </c>
+      <c r="W77" s="10">
+        <v>40</v>
+      </c>
+      <c r="X77" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" s="10">
         <v>24</v>
       </c>
       <c r="B78" s="10">
         <v>49</v>
       </c>
+      <c r="C78" s="10">
+        <v>1013</v>
+      </c>
       <c r="D78" s="10">
         <v>900</v>
       </c>
       <c r="E78" s="10">
         <v>30</v>
       </c>
-      <c r="H78">
-        <v>10</v>
-      </c>
-      <c r="I78">
-        <v>50</v>
-      </c>
-      <c r="J78">
-        <v>249</v>
-      </c>
-      <c r="K78">
+      <c r="H78" s="10">
+        <v>10</v>
+      </c>
+      <c r="I78" s="10">
+        <v>50</v>
+      </c>
+      <c r="J78" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K78" s="10">
         <v>143</v>
       </c>
-      <c r="L78">
-        <v>20</v>
-      </c>
-      <c r="N78">
-        <v>20</v>
-      </c>
-      <c r="O78">
+      <c r="L78" s="10">
+        <v>20</v>
+      </c>
+      <c r="N78" s="10">
+        <v>20</v>
+      </c>
+      <c r="O78" s="10">
         <v>41</v>
       </c>
-      <c r="P78">
-        <v>105</v>
-      </c>
-      <c r="Q78">
-        <v>50</v>
-      </c>
-      <c r="R78">
+      <c r="P78" s="10">
+        <v>1051</v>
+      </c>
+      <c r="Q78" s="10">
+        <v>50</v>
+      </c>
+      <c r="R78" s="10">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="T78" s="10">
+        <v>20</v>
+      </c>
+      <c r="U78" s="10">
+        <v>41</v>
+      </c>
+      <c r="V78" s="14">
+        <v>1085</v>
+      </c>
+      <c r="W78" s="10">
+        <v>50</v>
+      </c>
+      <c r="X78" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="10">
         <v>31</v>
       </c>
       <c r="B79" s="10">
         <v>61</v>
       </c>
+      <c r="C79" s="10">
+        <v>988</v>
+      </c>
       <c r="D79" s="10">
         <v>987</v>
       </c>
       <c r="E79" s="10">
         <v>32</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="10">
         <v>26</v>
       </c>
-      <c r="I79">
-        <v>40</v>
-      </c>
-      <c r="J79">
-        <v>371</v>
-      </c>
-      <c r="K79">
+      <c r="I79" s="10">
+        <v>40</v>
+      </c>
+      <c r="J79" s="14">
+        <v>983</v>
+      </c>
+      <c r="K79" s="10">
         <v>116</v>
       </c>
-      <c r="L79">
-        <v>20</v>
-      </c>
-      <c r="N79">
-        <v>20</v>
-      </c>
-      <c r="O79">
+      <c r="L79" s="10">
+        <v>20</v>
+      </c>
+      <c r="N79" s="10">
+        <v>20</v>
+      </c>
+      <c r="O79" s="10">
         <v>39</v>
       </c>
-      <c r="P79">
-        <v>98</v>
-      </c>
-      <c r="Q79">
+      <c r="P79" s="10">
+        <v>1035</v>
+      </c>
+      <c r="Q79" s="10">
         <v>58</v>
       </c>
-      <c r="R79">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="R79" s="10">
+        <v>20</v>
+      </c>
+      <c r="T79" s="10">
+        <v>20</v>
+      </c>
+      <c r="U79" s="10">
+        <v>39</v>
+      </c>
+      <c r="V79" s="14">
+        <v>1073</v>
+      </c>
+      <c r="W79" s="10">
+        <v>58</v>
+      </c>
+      <c r="X79" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="10">
         <v>25</v>
       </c>
       <c r="B80" s="10">
         <v>63</v>
       </c>
+      <c r="C80" s="10">
+        <v>910</v>
+      </c>
       <c r="D80" s="10">
         <v>753</v>
       </c>
       <c r="E80" s="10">
         <v>28</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="10">
         <v>14</v>
       </c>
-      <c r="I80">
-        <v>50</v>
-      </c>
-      <c r="J80">
-        <v>355</v>
-      </c>
-      <c r="K80">
+      <c r="I80" s="10">
+        <v>50</v>
+      </c>
+      <c r="J80" s="14">
+        <v>930</v>
+      </c>
+      <c r="K80" s="10">
         <v>158</v>
       </c>
-      <c r="L80">
-        <v>20</v>
-      </c>
-      <c r="N80">
-        <v>10</v>
-      </c>
-      <c r="O80">
-        <v>40</v>
-      </c>
-      <c r="P80">
-        <v>102</v>
-      </c>
-      <c r="Q80">
+      <c r="L80" s="10">
+        <v>20</v>
+      </c>
+      <c r="N80" s="10">
+        <v>10</v>
+      </c>
+      <c r="O80" s="10">
+        <v>40</v>
+      </c>
+      <c r="P80" s="10">
+        <v>837</v>
+      </c>
+      <c r="Q80" s="10">
         <v>42</v>
       </c>
-      <c r="R80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="R80" s="10">
+        <v>10</v>
+      </c>
+      <c r="T80" s="10">
+        <v>10</v>
+      </c>
+      <c r="U80" s="10">
+        <v>40</v>
+      </c>
+      <c r="V80" s="14">
+        <v>1084</v>
+      </c>
+      <c r="W80" s="10">
+        <v>42</v>
+      </c>
+      <c r="X80" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="10">
         <v>23</v>
       </c>
       <c r="B81" s="10">
         <v>68</v>
       </c>
+      <c r="C81" s="10">
+        <v>1021</v>
+      </c>
       <c r="D81" s="10">
         <v>384</v>
       </c>
       <c r="E81" s="10">
         <v>26</v>
       </c>
-      <c r="H81">
-        <v>20</v>
-      </c>
-      <c r="I81">
+      <c r="H81" s="10">
+        <v>20</v>
+      </c>
+      <c r="I81" s="10">
         <v>58</v>
       </c>
-      <c r="J81">
-        <v>410</v>
-      </c>
-      <c r="K81">
+      <c r="J81" s="14">
+        <v>1049</v>
+      </c>
+      <c r="K81" s="10">
         <v>124</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="10">
         <v>18</v>
       </c>
-      <c r="N81">
-        <v>20</v>
-      </c>
-      <c r="O81">
+      <c r="N81" s="10">
+        <v>20</v>
+      </c>
+      <c r="O81" s="10">
         <v>41</v>
       </c>
-      <c r="P81">
-        <v>83</v>
-      </c>
-      <c r="Q81">
-        <v>50</v>
-      </c>
-      <c r="R81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="P81" s="10">
+        <v>907</v>
+      </c>
+      <c r="Q81" s="10">
+        <v>50</v>
+      </c>
+      <c r="R81" s="10">
+        <v>20</v>
+      </c>
+      <c r="T81" s="10">
+        <v>20</v>
+      </c>
+      <c r="U81" s="10">
+        <v>41</v>
+      </c>
+      <c r="V81" s="14">
+        <v>1075</v>
+      </c>
+      <c r="W81" s="10">
+        <v>50</v>
+      </c>
+      <c r="X81" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" s="10">
         <v>27</v>
       </c>
       <c r="B82" s="10">
         <v>57</v>
       </c>
+      <c r="C82" s="10">
+        <v>964</v>
+      </c>
       <c r="D82" s="10">
         <v>546</v>
       </c>
       <c r="E82" s="10">
         <v>21</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="10">
         <v>17</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="10">
         <v>47</v>
       </c>
-      <c r="J82">
-        <v>372</v>
-      </c>
-      <c r="K82">
+      <c r="J82" s="14">
+        <v>1095</v>
+      </c>
+      <c r="K82" s="10">
         <v>161</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="10">
         <v>15</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="10">
         <v>11</v>
       </c>
-      <c r="O82">
-        <v>40</v>
-      </c>
-      <c r="P82">
-        <v>105</v>
-      </c>
-      <c r="Q82">
-        <v>50</v>
-      </c>
-      <c r="R82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="O82" s="10">
+        <v>40</v>
+      </c>
+      <c r="P82" s="10">
+        <v>951</v>
+      </c>
+      <c r="Q82" s="10">
+        <v>50</v>
+      </c>
+      <c r="R82" s="10">
+        <v>10</v>
+      </c>
+      <c r="T82" s="10">
+        <v>11</v>
+      </c>
+      <c r="U82" s="10">
+        <v>40</v>
+      </c>
+      <c r="V82" s="14">
+        <v>992</v>
+      </c>
+      <c r="W82" s="10">
+        <v>50</v>
+      </c>
+      <c r="X82" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" s="10">
         <v>30</v>
       </c>
       <c r="B83" s="10">
         <v>53</v>
       </c>
+      <c r="C83" s="10">
+        <v>1024</v>
+      </c>
       <c r="D83" s="10">
         <v>447</v>
       </c>
       <c r="E83" s="10">
         <v>31</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="10">
         <v>15</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="10">
         <v>56</v>
       </c>
-      <c r="J83">
-        <v>358</v>
-      </c>
-      <c r="K83">
+      <c r="J83" s="14">
+        <v>1023</v>
+      </c>
+      <c r="K83" s="10">
         <v>135</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="10">
         <v>16</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="10">
         <v>18</v>
       </c>
-      <c r="O83">
-        <v>30</v>
-      </c>
-      <c r="P83">
-        <v>89</v>
-      </c>
-      <c r="Q83">
-        <v>40</v>
-      </c>
-      <c r="R83">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="O83" s="10">
+        <v>30</v>
+      </c>
+      <c r="P83" s="10">
+        <v>838</v>
+      </c>
+      <c r="Q83" s="10">
+        <v>40</v>
+      </c>
+      <c r="R83" s="10">
+        <v>20</v>
+      </c>
+      <c r="T83" s="10">
+        <v>18</v>
+      </c>
+      <c r="U83" s="10">
+        <v>30</v>
+      </c>
+      <c r="V83" s="14">
+        <v>883</v>
+      </c>
+      <c r="W83" s="10">
+        <v>40</v>
+      </c>
+      <c r="X83" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="10">
         <v>20</v>
       </c>
       <c r="B84" s="10">
         <v>64</v>
       </c>
+      <c r="C84" s="10">
+        <v>945</v>
+      </c>
       <c r="D84" s="10">
         <v>545</v>
       </c>
       <c r="E84" s="10">
         <v>32</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="10">
         <v>17</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="10">
         <v>43</v>
       </c>
-      <c r="J84">
-        <v>372</v>
-      </c>
-      <c r="K84">
+      <c r="J84" s="14">
+        <v>1018</v>
+      </c>
+      <c r="K84" s="10">
         <v>173</v>
       </c>
-      <c r="L84">
-        <v>20</v>
-      </c>
-      <c r="N84">
-        <v>20</v>
-      </c>
-      <c r="O84">
-        <v>40</v>
-      </c>
-      <c r="P84">
-        <v>107</v>
-      </c>
-      <c r="Q84">
-        <v>50</v>
-      </c>
-      <c r="R84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="L84" s="10">
+        <v>20</v>
+      </c>
+      <c r="N84" s="10">
+        <v>20</v>
+      </c>
+      <c r="O84" s="10">
+        <v>40</v>
+      </c>
+      <c r="P84" s="10">
+        <v>1088</v>
+      </c>
+      <c r="Q84" s="10">
+        <v>50</v>
+      </c>
+      <c r="R84" s="10">
+        <v>20</v>
+      </c>
+      <c r="T84" s="10">
+        <v>20</v>
+      </c>
+      <c r="U84" s="10">
+        <v>40</v>
+      </c>
+      <c r="V84" s="14">
+        <v>1095</v>
+      </c>
+      <c r="W84" s="10">
+        <v>50</v>
+      </c>
+      <c r="X84" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" s="10">
         <v>30</v>
       </c>
       <c r="B85" s="10">
         <v>55</v>
       </c>
+      <c r="C85" s="10">
+        <v>852</v>
+      </c>
       <c r="D85" s="10">
         <v>869</v>
       </c>
       <c r="E85" s="10">
         <v>25</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="10">
         <v>15</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="10">
         <v>47</v>
       </c>
-      <c r="J85">
-        <v>375</v>
-      </c>
-      <c r="K85">
+      <c r="J85" s="14">
+        <v>1046</v>
+      </c>
+      <c r="K85" s="10">
         <v>146</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="10">
         <v>11</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="10">
         <v>13</v>
       </c>
-      <c r="O85">
-        <v>40</v>
-      </c>
-      <c r="P85">
-        <v>101</v>
-      </c>
-      <c r="Q85">
+      <c r="O85" s="10">
+        <v>40</v>
+      </c>
+      <c r="P85" s="10">
+        <v>1089</v>
+      </c>
+      <c r="Q85" s="10">
         <v>60</v>
       </c>
-      <c r="R85">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="R85" s="10">
+        <v>20</v>
+      </c>
+      <c r="T85" s="10">
+        <v>13</v>
+      </c>
+      <c r="U85" s="10">
+        <v>40</v>
+      </c>
+      <c r="V85" s="14">
+        <v>1107</v>
+      </c>
+      <c r="W85" s="10">
+        <v>60</v>
+      </c>
+      <c r="X85" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" s="10">
         <v>30</v>
       </c>
       <c r="B86" s="10">
         <v>52</v>
       </c>
+      <c r="C86" s="10">
+        <v>1021</v>
+      </c>
       <c r="D86" s="10">
         <v>536</v>
       </c>
       <c r="E86" s="10">
         <v>30</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="10">
         <v>15</v>
       </c>
-      <c r="I86">
-        <v>50</v>
-      </c>
-      <c r="J86">
-        <v>398</v>
-      </c>
-      <c r="K86">
+      <c r="I86" s="10">
+        <v>50</v>
+      </c>
+      <c r="J86" s="14">
+        <v>962</v>
+      </c>
+      <c r="K86" s="10">
         <v>142</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="10">
         <v>19</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="10">
         <v>17</v>
       </c>
-      <c r="O86">
-        <v>30</v>
-      </c>
-      <c r="P86">
-        <v>94</v>
-      </c>
-      <c r="Q86">
-        <v>40</v>
-      </c>
-      <c r="R86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="O86" s="10">
+        <v>30</v>
+      </c>
+      <c r="P86" s="10">
+        <v>1076</v>
+      </c>
+      <c r="Q86" s="10">
+        <v>40</v>
+      </c>
+      <c r="R86" s="10">
+        <v>10</v>
+      </c>
+      <c r="T86" s="10">
+        <v>17</v>
+      </c>
+      <c r="U86" s="10">
+        <v>30</v>
+      </c>
+      <c r="V86" s="14">
+        <v>1080</v>
+      </c>
+      <c r="W86" s="10">
+        <v>40</v>
+      </c>
+      <c r="X86" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" s="10">
         <v>28</v>
       </c>
       <c r="B87" s="10">
         <v>64</v>
       </c>
+      <c r="C87" s="10">
+        <v>936</v>
+      </c>
       <c r="D87" s="10">
         <v>458</v>
       </c>
       <c r="E87" s="10">
         <v>30</v>
       </c>
-      <c r="H87">
-        <v>20</v>
-      </c>
-      <c r="I87">
+      <c r="H87" s="10">
+        <v>20</v>
+      </c>
+      <c r="I87" s="10">
         <v>60</v>
       </c>
-      <c r="J87">
-        <v>375</v>
-      </c>
-      <c r="K87">
+      <c r="J87" s="14">
+        <v>1018</v>
+      </c>
+      <c r="K87" s="10">
         <v>160</v>
       </c>
-      <c r="L87">
-        <v>20</v>
-      </c>
-      <c r="N87">
-        <v>10</v>
-      </c>
-      <c r="O87">
+      <c r="L87" s="10">
+        <v>20</v>
+      </c>
+      <c r="N87" s="10">
+        <v>10</v>
+      </c>
+      <c r="O87" s="10">
         <v>41</v>
       </c>
-      <c r="P87">
-        <v>108</v>
-      </c>
-      <c r="Q87">
+      <c r="P87" s="10">
+        <v>1080</v>
+      </c>
+      <c r="Q87" s="10">
         <v>47</v>
       </c>
-      <c r="R87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="R87" s="10">
+        <v>20</v>
+      </c>
+      <c r="T87" s="10">
+        <v>10</v>
+      </c>
+      <c r="U87" s="10">
+        <v>41</v>
+      </c>
+      <c r="V87" s="14">
+        <v>1048</v>
+      </c>
+      <c r="W87" s="10">
+        <v>47</v>
+      </c>
+      <c r="X87" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" s="10">
         <v>22</v>
       </c>
       <c r="B88" s="10">
         <v>67</v>
       </c>
+      <c r="C88" s="10">
+        <v>906</v>
+      </c>
       <c r="D88" s="10">
         <v>961</v>
       </c>
       <c r="E88" s="10">
         <v>30</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="10">
         <v>11</v>
       </c>
-      <c r="I88">
-        <v>40</v>
-      </c>
-      <c r="J88">
-        <v>379</v>
-      </c>
-      <c r="K88">
+      <c r="I88" s="10">
+        <v>40</v>
+      </c>
+      <c r="J88" s="14">
+        <v>881</v>
+      </c>
+      <c r="K88" s="10">
         <v>151</v>
       </c>
-      <c r="L88">
-        <v>20</v>
-      </c>
-      <c r="N88">
-        <v>20</v>
-      </c>
-      <c r="O88">
+      <c r="L88" s="10">
+        <v>20</v>
+      </c>
+      <c r="N88" s="10">
+        <v>20</v>
+      </c>
+      <c r="O88" s="10">
         <v>43</v>
       </c>
-      <c r="P88">
-        <v>91</v>
-      </c>
-      <c r="Q88">
+      <c r="P88" s="10">
+        <v>960</v>
+      </c>
+      <c r="Q88" s="10">
         <v>43</v>
       </c>
-      <c r="R88">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="R88" s="10">
+        <v>20</v>
+      </c>
+      <c r="T88" s="10">
+        <v>20</v>
+      </c>
+      <c r="U88" s="10">
+        <v>43</v>
+      </c>
+      <c r="V88" s="14">
+        <v>1041</v>
+      </c>
+      <c r="W88" s="10">
+        <v>43</v>
+      </c>
+      <c r="X88" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" s="10">
         <v>30</v>
       </c>
       <c r="B89" s="10">
         <v>70</v>
       </c>
+      <c r="C89" s="10">
+        <v>1005</v>
+      </c>
       <c r="D89" s="10">
         <v>546</v>
       </c>
       <c r="E89" s="10">
         <v>27</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="10">
         <v>19</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="10">
         <v>44</v>
       </c>
-      <c r="J89">
-        <v>365</v>
-      </c>
-      <c r="K89">
+      <c r="J89" s="14">
+        <v>1015</v>
+      </c>
+      <c r="K89" s="10">
         <v>111</v>
       </c>
-      <c r="L89">
-        <v>20</v>
-      </c>
-      <c r="N89">
+      <c r="L89" s="10">
+        <v>20</v>
+      </c>
+      <c r="N89" s="10">
         <v>11</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="10">
         <v>37</v>
       </c>
-      <c r="P89">
-        <v>105</v>
-      </c>
-      <c r="Q89">
-        <v>40</v>
-      </c>
-      <c r="R89">
+      <c r="P89" s="10">
+        <v>865</v>
+      </c>
+      <c r="Q89" s="10">
+        <v>40</v>
+      </c>
+      <c r="R89" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="T89" s="10">
+        <v>11</v>
+      </c>
+      <c r="U89" s="10">
+        <v>37</v>
+      </c>
+      <c r="V89" s="14">
+        <v>1091</v>
+      </c>
+      <c r="W89" s="10">
+        <v>40</v>
+      </c>
+      <c r="X89" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="10">
         <v>27</v>
       </c>
       <c r="B90" s="10">
         <v>60</v>
       </c>
+      <c r="C90" s="10">
+        <v>965</v>
+      </c>
       <c r="D90" s="10">
         <v>1022</v>
       </c>
       <c r="E90" s="10">
         <v>23</v>
       </c>
-      <c r="H90">
-        <v>20</v>
-      </c>
-      <c r="I90">
-        <v>40</v>
-      </c>
-      <c r="J90">
-        <v>366</v>
-      </c>
-      <c r="K90">
+      <c r="H90" s="10">
+        <v>20</v>
+      </c>
+      <c r="I90" s="10">
+        <v>40</v>
+      </c>
+      <c r="J90" s="14">
+        <v>844</v>
+      </c>
+      <c r="K90" s="10">
         <v>92</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="10">
         <v>16</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="10">
         <v>18</v>
       </c>
-      <c r="O90">
-        <v>30</v>
-      </c>
-      <c r="P90">
-        <v>98</v>
-      </c>
-      <c r="Q90">
-        <v>50</v>
-      </c>
-      <c r="R90">
+      <c r="O90" s="10">
+        <v>30</v>
+      </c>
+      <c r="P90" s="10">
+        <v>1105</v>
+      </c>
+      <c r="Q90" s="10">
+        <v>50</v>
+      </c>
+      <c r="R90" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="T90" s="10">
+        <v>18</v>
+      </c>
+      <c r="U90" s="10">
+        <v>30</v>
+      </c>
+      <c r="V90" s="14">
+        <v>1098</v>
+      </c>
+      <c r="W90" s="10">
+        <v>50</v>
+      </c>
+      <c r="X90" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" s="10">
         <v>22</v>
       </c>
       <c r="B91" s="10">
         <v>71</v>
       </c>
+      <c r="C91" s="10">
+        <v>1018</v>
+      </c>
       <c r="D91" s="10">
         <v>981</v>
       </c>
       <c r="E91" s="10">
         <v>30</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="10">
         <v>14</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="10">
         <v>60</v>
       </c>
-      <c r="J91">
-        <v>353</v>
-      </c>
-      <c r="K91">
+      <c r="J91" s="14">
+        <v>1042</v>
+      </c>
+      <c r="K91" s="10">
         <v>179</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="10">
         <v>16</v>
       </c>
-      <c r="N91">
-        <v>20</v>
-      </c>
-      <c r="O91">
-        <v>50</v>
-      </c>
-      <c r="P91">
-        <v>103</v>
-      </c>
-      <c r="Q91">
-        <v>50</v>
-      </c>
-      <c r="R91">
+      <c r="N91" s="10">
+        <v>20</v>
+      </c>
+      <c r="O91" s="10">
+        <v>50</v>
+      </c>
+      <c r="P91" s="10">
+        <v>1083</v>
+      </c>
+      <c r="Q91" s="10">
+        <v>50</v>
+      </c>
+      <c r="R91" s="10">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="T91" s="10">
+        <v>20</v>
+      </c>
+      <c r="U91" s="10">
+        <v>50</v>
+      </c>
+      <c r="V91" s="14">
+        <v>974</v>
+      </c>
+      <c r="W91" s="10">
+        <v>50</v>
+      </c>
+      <c r="X91" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" s="10">
         <v>30</v>
       </c>
       <c r="B92" s="10">
         <v>49</v>
       </c>
+      <c r="C92" s="10">
+        <v>999</v>
+      </c>
       <c r="D92" s="10">
         <v>558</v>
       </c>
       <c r="E92" s="10">
         <v>30</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="10">
         <v>16</v>
       </c>
-      <c r="I92">
-        <v>50</v>
-      </c>
-      <c r="J92">
-        <v>372</v>
-      </c>
-      <c r="K92">
+      <c r="I92" s="10">
+        <v>50</v>
+      </c>
+      <c r="J92" s="14">
+        <v>1042</v>
+      </c>
+      <c r="K92" s="10">
         <v>161</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="10">
         <v>18</v>
       </c>
-      <c r="N92">
-        <v>10</v>
-      </c>
-      <c r="O92">
-        <v>40</v>
-      </c>
-      <c r="P92">
-        <v>97</v>
-      </c>
-      <c r="Q92">
+      <c r="N92" s="10">
+        <v>10</v>
+      </c>
+      <c r="O92" s="10">
+        <v>40</v>
+      </c>
+      <c r="P92" s="10">
+        <v>1087</v>
+      </c>
+      <c r="Q92" s="10">
         <v>43</v>
       </c>
-      <c r="R92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="R92" s="10">
+        <v>10</v>
+      </c>
+      <c r="T92" s="10">
+        <v>10</v>
+      </c>
+      <c r="U92" s="10">
+        <v>40</v>
+      </c>
+      <c r="V92" s="14">
+        <v>1099</v>
+      </c>
+      <c r="W92" s="10">
+        <v>43</v>
+      </c>
+      <c r="X92" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" s="10">
         <v>27</v>
       </c>
       <c r="B93" s="10">
         <v>62</v>
       </c>
+      <c r="C93" s="10">
+        <v>970</v>
+      </c>
       <c r="D93" s="10">
         <v>595</v>
       </c>
       <c r="E93" s="10">
         <v>30</v>
       </c>
-      <c r="H93">
-        <v>20</v>
-      </c>
-      <c r="I93">
-        <v>40</v>
-      </c>
-      <c r="J93">
-        <v>353</v>
-      </c>
-      <c r="K93">
+      <c r="H93" s="10">
+        <v>20</v>
+      </c>
+      <c r="I93" s="10">
+        <v>40</v>
+      </c>
+      <c r="J93" s="14">
+        <v>867</v>
+      </c>
+      <c r="K93" s="10">
         <v>180</v>
       </c>
-      <c r="L93">
-        <v>20</v>
-      </c>
-      <c r="N93">
-        <v>20</v>
-      </c>
-      <c r="O93">
-        <v>40</v>
-      </c>
-      <c r="P93">
-        <v>97</v>
-      </c>
-      <c r="Q93">
+      <c r="L93" s="10">
+        <v>20</v>
+      </c>
+      <c r="N93" s="10">
+        <v>20</v>
+      </c>
+      <c r="O93" s="10">
+        <v>40</v>
+      </c>
+      <c r="P93" s="10">
+        <v>1096</v>
+      </c>
+      <c r="Q93" s="10">
         <v>47</v>
       </c>
-      <c r="R93">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="R93" s="10">
+        <v>20</v>
+      </c>
+      <c r="T93" s="10">
+        <v>20</v>
+      </c>
+      <c r="U93" s="10">
+        <v>40</v>
+      </c>
+      <c r="V93" s="14">
+        <v>1112</v>
+      </c>
+      <c r="W93" s="10">
+        <v>47</v>
+      </c>
+      <c r="X93" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" s="10">
         <v>22</v>
       </c>
       <c r="B94" s="10">
         <v>39</v>
       </c>
+      <c r="C94" s="10">
+        <v>991</v>
+      </c>
       <c r="D94" s="10">
         <v>277</v>
       </c>
       <c r="E94" s="10">
         <v>30</v>
       </c>
-      <c r="H94">
-        <v>10</v>
-      </c>
-      <c r="I94">
+      <c r="H94" s="10">
+        <v>10</v>
+      </c>
+      <c r="I94" s="10">
         <v>64</v>
       </c>
-      <c r="J94">
-        <v>346</v>
-      </c>
-      <c r="K94">
+      <c r="J94" s="14">
+        <v>1100</v>
+      </c>
+      <c r="K94" s="10">
         <v>163</v>
       </c>
-      <c r="L94">
-        <v>10</v>
-      </c>
-      <c r="N94">
+      <c r="L94" s="10">
+        <v>10</v>
+      </c>
+      <c r="N94" s="10">
         <v>11</v>
       </c>
-      <c r="O94">
-        <v>40</v>
-      </c>
-      <c r="P94">
-        <v>99</v>
-      </c>
-      <c r="Q94">
-        <v>50</v>
-      </c>
-      <c r="R94">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="O94" s="10">
+        <v>40</v>
+      </c>
+      <c r="P94" s="10">
+        <v>1093</v>
+      </c>
+      <c r="Q94" s="10">
+        <v>50</v>
+      </c>
+      <c r="R94" s="10">
+        <v>20</v>
+      </c>
+      <c r="T94" s="10">
+        <v>11</v>
+      </c>
+      <c r="U94" s="10">
+        <v>40</v>
+      </c>
+      <c r="V94" s="14">
+        <v>1112</v>
+      </c>
+      <c r="W94" s="10">
+        <v>50</v>
+      </c>
+      <c r="X94" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" s="10">
         <v>30</v>
       </c>
       <c r="B95" s="10">
         <v>64</v>
       </c>
+      <c r="C95" s="10">
+        <v>971</v>
+      </c>
       <c r="D95" s="10">
         <v>330</v>
       </c>
       <c r="E95" s="10">
         <v>20</v>
       </c>
-      <c r="H95">
-        <v>20</v>
-      </c>
-      <c r="I95">
+      <c r="H95" s="10">
+        <v>20</v>
+      </c>
+      <c r="I95" s="10">
         <v>42</v>
       </c>
-      <c r="J95">
-        <v>368</v>
-      </c>
-      <c r="K95">
+      <c r="J95" s="14">
+        <v>920</v>
+      </c>
+      <c r="K95" s="10">
         <v>131</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="10">
         <v>25</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="10">
         <v>19</v>
       </c>
-      <c r="O95">
-        <v>30</v>
-      </c>
-      <c r="P95">
-        <v>93</v>
-      </c>
-      <c r="Q95">
-        <v>50</v>
-      </c>
-      <c r="R95">
+      <c r="O95" s="10">
+        <v>30</v>
+      </c>
+      <c r="P95" s="10">
+        <v>1079</v>
+      </c>
+      <c r="Q95" s="10">
+        <v>50</v>
+      </c>
+      <c r="R95" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="T95" s="10">
+        <v>19</v>
+      </c>
+      <c r="U95" s="10">
+        <v>30</v>
+      </c>
+      <c r="V95" s="14">
+        <v>800</v>
+      </c>
+      <c r="W95" s="10">
+        <v>50</v>
+      </c>
+      <c r="X95" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" s="10">
         <v>27</v>
       </c>
       <c r="B96" s="10">
         <v>67</v>
       </c>
+      <c r="C96" s="10">
+        <v>996</v>
+      </c>
       <c r="D96" s="10">
         <v>232</v>
       </c>
       <c r="E96" s="10">
         <v>30</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="10">
         <v>19</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="10">
         <v>47</v>
       </c>
-      <c r="J96">
-        <v>257</v>
-      </c>
-      <c r="K96">
+      <c r="J96" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K96" s="10">
         <v>141</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="10">
         <v>15</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="10">
         <v>12</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="10">
         <v>47</v>
       </c>
-      <c r="P96">
-        <v>101</v>
-      </c>
-      <c r="Q96">
-        <v>50</v>
-      </c>
-      <c r="R96">
+      <c r="P96" s="10">
+        <v>1064</v>
+      </c>
+      <c r="Q96" s="10">
+        <v>50</v>
+      </c>
+      <c r="R96" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="T96" s="10">
+        <v>12</v>
+      </c>
+      <c r="U96" s="10">
+        <v>47</v>
+      </c>
+      <c r="V96" s="14">
+        <v>748</v>
+      </c>
+      <c r="W96" s="10">
+        <v>50</v>
+      </c>
+      <c r="X96" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" s="10">
         <v>23</v>
       </c>
       <c r="B97" s="10">
         <v>51</v>
       </c>
+      <c r="C97" s="10">
+        <v>984</v>
+      </c>
       <c r="D97" s="10">
         <v>547</v>
       </c>
       <c r="E97" s="10">
         <v>35</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="10">
         <v>14</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="10">
         <v>48</v>
       </c>
-      <c r="J97">
-        <v>434</v>
-      </c>
-      <c r="K97">
+      <c r="J97" s="14">
+        <v>1007</v>
+      </c>
+      <c r="K97" s="10">
         <v>164</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="10">
         <v>23</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="10">
         <v>17</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="10">
         <v>33</v>
       </c>
-      <c r="P97">
-        <v>90</v>
-      </c>
-      <c r="Q97">
+      <c r="P97" s="10">
+        <v>1094</v>
+      </c>
+      <c r="Q97" s="10">
         <v>55</v>
       </c>
-      <c r="R97">
+      <c r="R97" s="10">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="T97" s="10">
+        <v>17</v>
+      </c>
+      <c r="U97" s="10">
+        <v>33</v>
+      </c>
+      <c r="V97" s="14">
+        <v>945</v>
+      </c>
+      <c r="W97" s="10">
+        <v>55</v>
+      </c>
+      <c r="X97" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" s="10">
         <v>30</v>
       </c>
       <c r="B98" s="10">
         <v>70</v>
       </c>
+      <c r="C98" s="10">
+        <v>1003</v>
+      </c>
       <c r="D98" s="10">
         <v>961</v>
       </c>
       <c r="E98" s="10">
         <v>25</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="10">
         <v>17</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="10">
         <v>51</v>
       </c>
-      <c r="J98">
-        <v>334</v>
-      </c>
-      <c r="K98">
+      <c r="J98" s="14">
+        <v>964</v>
+      </c>
+      <c r="K98" s="10">
         <v>143</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="10">
         <v>17</v>
       </c>
-      <c r="N98">
-        <v>20</v>
-      </c>
-      <c r="O98">
+      <c r="N98" s="10">
+        <v>20</v>
+      </c>
+      <c r="O98" s="10">
         <v>45</v>
       </c>
-      <c r="P98">
-        <v>87</v>
-      </c>
-      <c r="Q98">
+      <c r="P98" s="10">
+        <v>1017</v>
+      </c>
+      <c r="Q98" s="10">
         <v>48</v>
       </c>
-      <c r="R98">
+      <c r="R98" s="10">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="T98" s="10">
+        <v>20</v>
+      </c>
+      <c r="U98" s="10">
+        <v>45</v>
+      </c>
+      <c r="V98" s="14">
+        <v>1069</v>
+      </c>
+      <c r="W98" s="10">
+        <v>48</v>
+      </c>
+      <c r="X98" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" s="10">
         <v>26</v>
       </c>
       <c r="B99" s="10">
         <v>50</v>
       </c>
+      <c r="C99" s="10">
+        <v>959</v>
+      </c>
       <c r="D99" s="10">
         <v>505</v>
       </c>
       <c r="E99" s="10">
         <v>30</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="10">
         <v>11</v>
       </c>
-      <c r="I99">
-        <v>50</v>
-      </c>
-      <c r="J99">
-        <v>468</v>
-      </c>
-      <c r="K99">
+      <c r="I99" s="10">
+        <v>50</v>
+      </c>
+      <c r="J99" s="14">
+        <v>901</v>
+      </c>
+      <c r="K99" s="10">
         <v>178</v>
       </c>
-      <c r="L99">
-        <v>20</v>
-      </c>
-      <c r="N99">
-        <v>10</v>
-      </c>
-      <c r="O99">
+      <c r="L99" s="10">
+        <v>20</v>
+      </c>
+      <c r="N99" s="10">
+        <v>10</v>
+      </c>
+      <c r="O99" s="10">
         <v>35</v>
       </c>
-      <c r="P99">
-        <v>85</v>
-      </c>
-      <c r="Q99">
+      <c r="P99" s="10">
+        <v>1072</v>
+      </c>
+      <c r="Q99" s="10">
         <v>37</v>
       </c>
-      <c r="R99">
+      <c r="R99" s="10">
         <v>17</v>
       </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="T99" s="10">
+        <v>10</v>
+      </c>
+      <c r="U99" s="10">
+        <v>35</v>
+      </c>
+      <c r="V99" s="14">
+        <v>1084</v>
+      </c>
+      <c r="W99" s="10">
+        <v>37</v>
+      </c>
+      <c r="X99" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" s="10">
         <v>24</v>
       </c>
       <c r="B100" s="10">
         <v>64</v>
       </c>
+      <c r="C100" s="10">
+        <v>966</v>
+      </c>
       <c r="D100" s="10">
         <v>779</v>
       </c>
       <c r="E100" s="10">
         <v>30</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="10">
         <v>19</v>
       </c>
-      <c r="I100">
-        <v>40</v>
-      </c>
-      <c r="J100">
-        <v>446</v>
-      </c>
-      <c r="K100">
+      <c r="I100" s="10">
+        <v>40</v>
+      </c>
+      <c r="J100" s="14">
+        <v>772</v>
+      </c>
+      <c r="K100" s="10">
         <v>80</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="10">
         <v>14</v>
       </c>
-      <c r="N100">
-        <v>20</v>
-      </c>
-      <c r="O100">
-        <v>40</v>
-      </c>
-      <c r="P100">
-        <v>92</v>
-      </c>
-      <c r="Q100">
-        <v>50</v>
-      </c>
-      <c r="R100">
+      <c r="N100" s="10">
+        <v>20</v>
+      </c>
+      <c r="O100" s="10">
+        <v>40</v>
+      </c>
+      <c r="P100" s="10">
+        <v>1019</v>
+      </c>
+      <c r="Q100" s="10">
+        <v>50</v>
+      </c>
+      <c r="R100" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="T100" s="10">
+        <v>20</v>
+      </c>
+      <c r="U100" s="10">
+        <v>40</v>
+      </c>
+      <c r="V100" s="14">
+        <v>1042</v>
+      </c>
+      <c r="W100" s="10">
+        <v>50</v>
+      </c>
+      <c r="X100" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" s="10">
         <v>23</v>
       </c>
       <c r="B101" s="10">
         <v>67</v>
       </c>
+      <c r="C101" s="10">
+        <v>865</v>
+      </c>
       <c r="D101" s="10">
         <v>799</v>
       </c>
       <c r="E101" s="10">
         <v>30</v>
       </c>
-      <c r="H101">
-        <v>20</v>
-      </c>
-      <c r="I101">
+      <c r="H101" s="10">
+        <v>20</v>
+      </c>
+      <c r="I101" s="10">
         <v>60</v>
       </c>
-      <c r="J101">
-        <v>488</v>
-      </c>
-      <c r="K101">
+      <c r="J101" s="14">
+        <v>785</v>
+      </c>
+      <c r="K101" s="10">
         <v>161</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="10">
         <v>15</v>
       </c>
-      <c r="N101">
+      <c r="N101" s="10">
         <v>11</v>
       </c>
-      <c r="O101">
-        <v>40</v>
-      </c>
-      <c r="P101">
-        <v>103</v>
-      </c>
-      <c r="Q101">
+      <c r="O101" s="10">
+        <v>40</v>
+      </c>
+      <c r="P101" s="10">
+        <v>992</v>
+      </c>
+      <c r="Q101" s="10">
         <v>42</v>
       </c>
-      <c r="R101">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="R101" s="10">
+        <v>10</v>
+      </c>
+      <c r="T101" s="10">
+        <v>11</v>
+      </c>
+      <c r="U101" s="10">
+        <v>40</v>
+      </c>
+      <c r="V101" s="14">
+        <v>1100</v>
+      </c>
+      <c r="W101" s="10">
+        <v>42</v>
+      </c>
+      <c r="X101" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" s="10">
         <v>32</v>
       </c>
       <c r="B102" s="10">
         <v>50</v>
       </c>
+      <c r="C102" s="10">
+        <v>937</v>
+      </c>
       <c r="D102" s="10">
         <v>858</v>
       </c>
       <c r="E102" s="10">
         <v>30</v>
       </c>
-      <c r="H102">
-        <v>20</v>
-      </c>
-      <c r="I102">
-        <v>40</v>
-      </c>
-      <c r="J102">
-        <v>575</v>
-      </c>
-      <c r="K102">
+      <c r="H102" s="10">
+        <v>20</v>
+      </c>
+      <c r="I102" s="10">
+        <v>40</v>
+      </c>
+      <c r="J102" s="14">
+        <v>902</v>
+      </c>
+      <c r="K102" s="10">
         <v>91</v>
       </c>
-      <c r="L102">
-        <v>20</v>
-      </c>
-      <c r="N102">
+      <c r="L102" s="10">
+        <v>20</v>
+      </c>
+      <c r="N102" s="10">
         <v>18</v>
       </c>
-      <c r="O102">
-        <v>40</v>
-      </c>
-      <c r="P102">
-        <v>106</v>
-      </c>
-      <c r="Q102">
+      <c r="O102" s="10">
+        <v>40</v>
+      </c>
+      <c r="P102" s="10">
+        <v>1028</v>
+      </c>
+      <c r="Q102" s="10">
         <v>47</v>
       </c>
-      <c r="R102">
+      <c r="R102" s="10">
+        <v>20</v>
+      </c>
+      <c r="T102" s="10">
+        <v>18</v>
+      </c>
+      <c r="U102" s="10">
+        <v>40</v>
+      </c>
+      <c r="V102" s="14">
+        <v>922</v>
+      </c>
+      <c r="W102" s="10">
+        <v>47</v>
+      </c>
+      <c r="X102" s="10">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>